--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_e9.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_e9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/data_analytics_research/shellbase_with_usc/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1367EEC8-2C2D-394C-AC2A-7C9097E17310}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EB3480-75A3-D343-969F-C16BA7C77F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,25 +17,25 @@
     <sheet name="CONDITIONAL" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Dist_Bin" hidden="1">CONDITIONAL!$H$38:$H$39</definedName>
-    <definedName name="_Dist_Values" hidden="1">CONDITIONAL!$F$2:$F$32</definedName>
-    <definedName name="_Key1" hidden="1">CONDITIONAL!$A$894</definedName>
-    <definedName name="_Key2" hidden="1">CONDITIONAL!$B$894</definedName>
+    <definedName name="_Dist_Bin" hidden="1">CONDITIONAL!$I$38:$I$39</definedName>
+    <definedName name="_Dist_Values" hidden="1">CONDITIONAL!$G$2:$G$32</definedName>
+    <definedName name="_Key1" hidden="1">CONDITIONAL!$B$894</definedName>
+    <definedName name="_Key2" hidden="1">CONDITIONAL!$C$894</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
-    <definedName name="_Sort" hidden="1">CONDITIONAL!$A$2:$G$920</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">CONDITIONAL!$FO$1:$GM$22</definedName>
+    <definedName name="_Sort" hidden="1">CONDITIONAL!$B$2:$H$920</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">CONDITIONAL!$FP$1:$GN$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sorted!$D$1:$GO$22</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">CONDITIONAL!$A:$B</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">CONDITIONAL!$B:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sorted!$B:$C</definedName>
-    <definedName name="Print_Titles_MI" localSheetId="1">CONDITIONAL!$A:$B</definedName>
+    <definedName name="Print_Titles_MI" localSheetId="1">CONDITIONAL!$B:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>STATION</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2018 Sta. #</t>
+  </si>
+  <si>
+    <t>NEW STATION</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="PG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="PH12" sqref="PH12"/>
+      <selection pane="topRight" activeCell="PH17" sqref="PH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3549,6 +3552,9 @@
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="OB7" s="14">
         <v>49</v>
       </c>
@@ -8088,759 +8094,761 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IM30"/>
+  <dimension ref="A1:IN30"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="22" zoomScale="87" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="R16" sqref="R16"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="40" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.28515625" customWidth="1"/>
-    <col min="42" max="46" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="8.28515625" customWidth="1"/>
-    <col min="49" max="62" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="8.28515625" customWidth="1"/>
-    <col min="66" max="67" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.28515625" customWidth="1"/>
-    <col min="69" max="79" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="8.28515625" customWidth="1"/>
-    <col min="82" max="89" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.28515625" customWidth="1"/>
-    <col min="91" max="95" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.28515625" customWidth="1"/>
-    <col min="97" max="97" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.28515625" customWidth="1"/>
-    <col min="99" max="103" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="8.28515625" customWidth="1"/>
-    <col min="105" max="108" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="8.28515625" customWidth="1"/>
-    <col min="110" max="122" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="123" max="124" width="8.28515625" customWidth="1"/>
-    <col min="125" max="129" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="8.28515625" customWidth="1"/>
-    <col min="131" max="136" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.28515625" customWidth="1"/>
-    <col min="138" max="138" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="8.28515625" customWidth="1"/>
-    <col min="140" max="154" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.28515625" customWidth="1"/>
-    <col min="156" max="161" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="8.28515625" customWidth="1"/>
-    <col min="163" max="170" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="8.28515625" customWidth="1"/>
-    <col min="172" max="182" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="8.28515625" customWidth="1"/>
-    <col min="184" max="190" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="41" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.28515625" customWidth="1"/>
+    <col min="43" max="47" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="8.28515625" customWidth="1"/>
+    <col min="50" max="63" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="8.28515625" customWidth="1"/>
+    <col min="67" max="68" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.28515625" customWidth="1"/>
+    <col min="70" max="80" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="8.28515625" customWidth="1"/>
+    <col min="83" max="90" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.28515625" customWidth="1"/>
+    <col min="92" max="96" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="8.28515625" customWidth="1"/>
+    <col min="98" max="98" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="8.28515625" customWidth="1"/>
+    <col min="100" max="104" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="8.28515625" customWidth="1"/>
+    <col min="106" max="109" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.28515625" customWidth="1"/>
+    <col min="111" max="123" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="8.28515625" customWidth="1"/>
+    <col min="126" max="130" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.28515625" customWidth="1"/>
+    <col min="132" max="137" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.28515625" customWidth="1"/>
+    <col min="139" max="139" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="8.28515625" customWidth="1"/>
+    <col min="141" max="155" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="8.28515625" customWidth="1"/>
+    <col min="157" max="162" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.28515625" customWidth="1"/>
+    <col min="164" max="171" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="8.28515625" customWidth="1"/>
+    <col min="173" max="183" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="8.28515625" customWidth="1"/>
+    <col min="185" max="191" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:248" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="D1" s="7">
         <f>DATE(93,1,20)</f>
         <v>33989</v>
       </c>
-      <c r="D1" s="7">
+      <c r="E1" s="7">
         <f>DATE(93,4,9)</f>
         <v>34068</v>
       </c>
-      <c r="E1" s="7">
+      <c r="F1" s="7">
         <f>DATE(93,4,12)</f>
         <v>34071</v>
       </c>
-      <c r="F1" s="7">
+      <c r="G1" s="7">
         <f>DATE(93,10,11)</f>
         <v>34253</v>
       </c>
-      <c r="G1" s="7">
+      <c r="H1" s="7">
         <f>DATE(93,10,13)</f>
         <v>34255</v>
       </c>
-      <c r="H1" s="7">
+      <c r="I1" s="7">
         <f>DATE(93,10,18)</f>
         <v>34260</v>
       </c>
-      <c r="I1" s="7">
+      <c r="J1" s="7">
         <f>DATE(93,10,20)</f>
         <v>34262</v>
       </c>
-      <c r="J1" s="7">
+      <c r="K1" s="7">
         <f>DATE(93,10,29)</f>
         <v>34271</v>
       </c>
-      <c r="K1" s="7">
+      <c r="L1" s="7">
         <f>DATE(93,11,1)</f>
         <v>34274</v>
       </c>
-      <c r="L1" s="7">
+      <c r="M1" s="7">
         <f>DATE(93,11,2)</f>
         <v>34275</v>
       </c>
-      <c r="M1" s="7">
+      <c r="N1" s="7">
         <f>DATE(93,11,29)</f>
         <v>34302</v>
       </c>
-      <c r="N1" s="7">
+      <c r="O1" s="7">
         <f>DATE(93,12,2)</f>
         <v>34305</v>
       </c>
-      <c r="O1" s="7">
+      <c r="P1" s="7">
         <f>DATE(93,12,7)</f>
         <v>34310</v>
       </c>
-      <c r="P1" s="7">
+      <c r="Q1" s="7">
         <f>DATE(94,1,18)</f>
         <v>34352</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="R1" s="7">
         <f>DATE(94,1,31)</f>
         <v>34365</v>
       </c>
-      <c r="R1" s="7">
+      <c r="S1" s="7">
         <f>DATE(94,2,3)</f>
         <v>34368</v>
       </c>
-      <c r="S1" s="7">
+      <c r="T1" s="7">
         <f>DATE(94,3,6)</f>
         <v>34399</v>
       </c>
-      <c r="T1" s="7">
+      <c r="U1" s="7">
         <f>DATE(94,5,31)</f>
         <v>34485</v>
       </c>
-      <c r="U1" s="7">
+      <c r="V1" s="7">
         <f>DATE(94,6,21)</f>
         <v>34506</v>
       </c>
-      <c r="V1" s="7">
+      <c r="W1" s="7">
         <f>DATE(94,8,16)</f>
         <v>34562</v>
       </c>
-      <c r="W1" s="7">
+      <c r="X1" s="7">
         <f>DATE(94,9,13)</f>
         <v>34590</v>
       </c>
-      <c r="X1" s="7">
+      <c r="Y1" s="7">
         <f>DATE(94,9,20)</f>
         <v>34597</v>
       </c>
-      <c r="Y1" s="7">
+      <c r="Z1" s="7">
         <f>DATE(95,10,16)</f>
         <v>34988</v>
       </c>
-      <c r="Z1" s="7">
+      <c r="AA1" s="7">
         <f>DATE(95,10,18)</f>
         <v>34990</v>
       </c>
-      <c r="AA1" s="7">
+      <c r="AB1" s="7">
         <f>DATE(96,1,29)</f>
         <v>35093</v>
       </c>
-      <c r="AB1" s="7">
+      <c r="AC1" s="7">
         <f>DATE(96,7,19)</f>
         <v>35265</v>
       </c>
-      <c r="AC1" s="7">
+      <c r="AD1" s="7">
         <f>DATE(96,8,5)</f>
         <v>35282</v>
       </c>
-      <c r="AD1" s="7">
+      <c r="AE1" s="7">
         <f>DATE(96,8,7)</f>
         <v>35284</v>
       </c>
-      <c r="AE1" s="7">
+      <c r="AF1" s="7">
         <f>DATE(96,9,10)</f>
         <v>35318</v>
       </c>
-      <c r="AF1" s="7">
+      <c r="AG1" s="7">
         <f>DATE(96,9,16)</f>
         <v>35324</v>
       </c>
-      <c r="AG1" s="7">
+      <c r="AH1" s="7">
         <f>DATE(96,9,18)</f>
         <v>35326</v>
       </c>
-      <c r="AH1" s="7">
+      <c r="AI1" s="7">
         <f>DATE(96,9,26)</f>
         <v>35334</v>
       </c>
-      <c r="AI1" s="7">
+      <c r="AJ1" s="7">
         <f>DATE(96,10,9)</f>
         <v>35347</v>
       </c>
-      <c r="AJ1" s="7">
+      <c r="AK1" s="7">
         <f>DATE(96,10,11)</f>
         <v>35349</v>
       </c>
-      <c r="AK1" s="7">
+      <c r="AL1" s="7">
         <f>DATE(96,10,14)</f>
         <v>35352</v>
       </c>
-      <c r="AL1" s="7">
+      <c r="AM1" s="7">
         <f>DATE(97,2,18)</f>
         <v>35479</v>
       </c>
-      <c r="AM1" s="7">
+      <c r="AN1" s="7">
         <f>DATE(97,3,17)</f>
         <v>35506</v>
       </c>
-      <c r="AN1" s="7">
+      <c r="AO1" s="7">
         <f>DATE(97,4,30)</f>
         <v>35550</v>
       </c>
-      <c r="AO1" s="7">
+      <c r="AP1" s="7">
         <f>DATE(97,5,28)</f>
         <v>35578</v>
       </c>
-      <c r="AP1" s="7">
+      <c r="AQ1" s="7">
         <f>DATE(97,7,14)</f>
         <v>35625</v>
       </c>
-      <c r="AQ1" s="7">
+      <c r="AR1" s="7">
         <f>DATE(97,8,4)</f>
         <v>35646</v>
       </c>
-      <c r="AR1" s="7">
+      <c r="AS1" s="7">
         <f>DATE(97,9,14)</f>
         <v>35687</v>
       </c>
-      <c r="AS1" s="7">
+      <c r="AT1" s="7">
         <f>DATE(97,9,17)</f>
         <v>35690</v>
       </c>
-      <c r="AT1" s="7">
+      <c r="AU1" s="7">
         <f>DATE(97,9,30)</f>
         <v>35703</v>
       </c>
-      <c r="AU1" s="7">
+      <c r="AV1" s="7">
         <f>DATE(97,10,2)</f>
         <v>35705</v>
       </c>
-      <c r="AV1" s="7">
+      <c r="AW1" s="7">
         <f>DATE(97,10,7)</f>
         <v>35710</v>
       </c>
-      <c r="AW1" s="7">
+      <c r="AX1" s="7">
         <f>DATE(97,11,3)</f>
         <v>35737</v>
       </c>
-      <c r="AX1" s="7">
+      <c r="AY1" s="7">
         <f>DATE(97,11,5)</f>
         <v>35739</v>
       </c>
-      <c r="AY1" s="7">
+      <c r="AZ1" s="7">
         <f>DATE(97,11,17)</f>
         <v>35751</v>
       </c>
-      <c r="AZ1" s="7">
+      <c r="BA1" s="7">
         <f>DATE(97,12,2)</f>
         <v>35766</v>
       </c>
-      <c r="BA1" s="8">
+      <c r="BB1" s="8">
         <f>DATE(97,12,4)</f>
         <v>35768</v>
       </c>
-      <c r="BB1" s="8">
+      <c r="BC1" s="8">
         <f>DATE(98,1,19)</f>
         <v>35814</v>
       </c>
-      <c r="BC1" s="8">
+      <c r="BD1" s="8">
         <f>DATE(98,1,21)</f>
         <v>35816</v>
       </c>
-      <c r="BD1" s="8">
+      <c r="BE1" s="8">
         <f>DATE(98,1,26)</f>
         <v>35821</v>
       </c>
-      <c r="BE1" s="8">
+      <c r="BF1" s="8">
         <f>DATE(98,1,30)</f>
         <v>35825</v>
       </c>
-      <c r="BF1" s="8">
+      <c r="BG1" s="8">
         <f>DATE(98,2,9)</f>
         <v>35835</v>
       </c>
-      <c r="BG1" s="8">
+      <c r="BH1" s="8">
         <f>DATE(98,2,11)</f>
         <v>35837</v>
       </c>
-      <c r="BH1" s="8">
+      <c r="BI1" s="8">
         <f>DATE(98,2,19)</f>
         <v>35845</v>
       </c>
-      <c r="BI1" s="8">
+      <c r="BJ1" s="8">
         <f>DATE(98,2,22)</f>
         <v>35848</v>
       </c>
-      <c r="BJ1" s="8">
+      <c r="BK1" s="8">
         <f>DATE(98,2,23)</f>
         <v>35849</v>
       </c>
-      <c r="BK1" s="7">
+      <c r="BL1" s="7">
         <f>DATE(98,2,26)</f>
         <v>35852</v>
       </c>
-      <c r="BL1" s="7">
+      <c r="BM1" s="7">
         <f>DATE(98,5,4)</f>
         <v>35919</v>
       </c>
-      <c r="BM1" s="7">
+      <c r="BN1" s="7">
         <f>DATE(98,5,6)</f>
         <v>35921</v>
       </c>
-      <c r="BN1" s="8">
+      <c r="BO1" s="8">
         <f>DATE(98,5,21)</f>
         <v>35936</v>
       </c>
-      <c r="BO1" s="8">
+      <c r="BP1" s="8">
         <f>DATE(98,7,13)</f>
         <v>35989</v>
       </c>
-      <c r="BP1" s="7">
+      <c r="BQ1" s="7">
         <f>DATE(98,8,4)</f>
         <v>36011</v>
       </c>
-      <c r="BQ1" s="8">
+      <c r="BR1" s="8">
         <f>DATE(98,8,31)</f>
         <v>36038</v>
       </c>
-      <c r="BR1" s="8">
+      <c r="BS1" s="8">
         <f>DATE(98,9,2)</f>
         <v>36040</v>
       </c>
-      <c r="BS1" s="8">
+      <c r="BT1" s="8">
         <f>DATE(98,9,7)</f>
         <v>36045</v>
       </c>
-      <c r="BT1" s="8">
+      <c r="BU1" s="8">
         <f>DATE(99,5,3)</f>
         <v>36283</v>
       </c>
-      <c r="BU1" s="8">
+      <c r="BV1" s="8">
         <f>DATE(99,5,6)</f>
         <v>36286</v>
       </c>
-      <c r="BV1" s="8">
+      <c r="BW1" s="8">
         <v>36333</v>
       </c>
-      <c r="BW1" s="8">
+      <c r="BX1" s="8">
         <v>36377</v>
       </c>
-      <c r="BX1" s="8">
+      <c r="BY1" s="8">
         <v>36380</v>
       </c>
-      <c r="BY1" s="8">
+      <c r="BZ1" s="8">
         <v>36396</v>
       </c>
-      <c r="BZ1" s="8">
+      <c r="CA1" s="8">
         <v>36411</v>
       </c>
-      <c r="CA1" s="8">
+      <c r="CB1" s="8">
         <v>36412</v>
       </c>
-      <c r="CB1" s="7">
+      <c r="CC1" s="7">
         <v>36439</v>
       </c>
-      <c r="CC1" s="7">
+      <c r="CD1" s="7">
         <v>36444</v>
       </c>
-      <c r="CD1" s="8">
+      <c r="CE1" s="8">
         <v>36452</v>
       </c>
-      <c r="CE1" s="8">
+      <c r="CF1" s="8">
         <v>36457</v>
       </c>
-      <c r="CF1" s="8">
+      <c r="CG1" s="8">
         <v>36552</v>
       </c>
-      <c r="CG1" s="7">
+      <c r="CH1" s="7">
         <f>DATE(2000,1,31)</f>
         <v>36556</v>
       </c>
-      <c r="CH1" s="7">
+      <c r="CI1" s="7">
         <f>DATE(2000,4,12)</f>
         <v>36628</v>
       </c>
-      <c r="CI1" s="7">
+      <c r="CJ1" s="7">
         <f>DATE(2000,4,18)</f>
         <v>36634</v>
       </c>
-      <c r="CJ1" s="7">
+      <c r="CK1" s="7">
         <f>DATE(2000,4,20)</f>
         <v>36636</v>
       </c>
-      <c r="CK1" s="7">
+      <c r="CL1" s="7">
         <f>DATE(2000,4,24)</f>
         <v>36640</v>
       </c>
-      <c r="CL1" s="7">
+      <c r="CM1" s="7">
         <f>DATE(2000,5,1)</f>
         <v>36647</v>
       </c>
-      <c r="CM1" s="7">
+      <c r="CN1" s="7">
         <f>DATE(2000,6,6)</f>
         <v>36683</v>
       </c>
-      <c r="CN1" s="7">
+      <c r="CO1" s="7">
         <f>DATE(2000,6,8)</f>
         <v>36685</v>
       </c>
-      <c r="CO1" s="7">
+      <c r="CP1" s="7">
         <f>DATE(2000,7,24)</f>
         <v>36731</v>
       </c>
-      <c r="CP1" s="7">
+      <c r="CQ1" s="7">
         <f>DATE(2000,7,27)</f>
         <v>36734</v>
       </c>
-      <c r="CQ1" s="7">
+      <c r="CR1" s="7">
         <f>DATE(2000,8,6)</f>
         <v>36744</v>
       </c>
-      <c r="CR1" s="7">
+      <c r="CS1" s="7">
         <f>DATE(2000,8,29)</f>
         <v>36767</v>
       </c>
-      <c r="CS1" s="7">
+      <c r="CT1" s="7">
         <f>DATE(2000,9,1)</f>
         <v>36770</v>
       </c>
-      <c r="CT1" s="7">
+      <c r="CU1" s="7">
         <f>DATE(2000,9,8)</f>
         <v>36777</v>
       </c>
-      <c r="CU1" s="7">
+      <c r="CV1" s="7">
         <f>DATE(2000,9,11)</f>
         <v>36780</v>
       </c>
-      <c r="CV1" s="7">
+      <c r="CW1" s="7">
         <f>DATE(2000,9,20)</f>
         <v>36789</v>
       </c>
-      <c r="CW1" s="7">
+      <c r="CX1" s="7">
         <f>DATE(2000,9,26)</f>
         <v>36795</v>
       </c>
-      <c r="CX1" s="7">
+      <c r="CY1" s="7">
         <f>DATE(2000,11,27)</f>
         <v>36857</v>
       </c>
-      <c r="CY1" s="7">
+      <c r="CZ1" s="7">
         <f>DATE(2000,11,29)</f>
         <v>36859</v>
       </c>
-      <c r="CZ1" s="7">
+      <c r="DA1" s="7">
         <f>DATE(2001,3,14)</f>
         <v>36964</v>
       </c>
-      <c r="DA1" s="7">
+      <c r="DB1" s="7">
         <f>DATE(2001,8,15)</f>
         <v>37118</v>
       </c>
-      <c r="DB1" s="7">
+      <c r="DC1" s="7">
         <f>DATE(2001,8,17)</f>
         <v>37120</v>
       </c>
-      <c r="DC1" s="8">
+      <c r="DD1" s="8">
         <f>DATE(2001,9,27)</f>
         <v>37161</v>
       </c>
-      <c r="DD1" s="8">
+      <c r="DE1" s="8">
         <f>DATE(2001,10,1)</f>
         <v>37165</v>
       </c>
-      <c r="DE1" s="7">
+      <c r="DF1" s="7">
         <v>37195</v>
       </c>
-      <c r="DF1" s="8">
+      <c r="DG1" s="8">
         <v>37297</v>
       </c>
-      <c r="DG1" s="8">
+      <c r="DH1" s="8">
         <v>37299</v>
       </c>
-      <c r="DH1" s="8">
+      <c r="DI1" s="8">
         <v>37329</v>
       </c>
-      <c r="DI1" s="8">
+      <c r="DJ1" s="8">
         <v>37332</v>
       </c>
-      <c r="DJ1" s="8">
+      <c r="DK1" s="8">
         <f>DATE(2002,9,3)</f>
         <v>37502</v>
       </c>
-      <c r="DK1" s="8">
+      <c r="DL1" s="8">
         <f>DATE(2002,9,4)</f>
         <v>37503</v>
       </c>
-      <c r="DL1" s="8">
+      <c r="DM1" s="8">
         <f>DATE(2002,9,6)</f>
         <v>37505</v>
       </c>
-      <c r="DM1" s="8">
+      <c r="DN1" s="8">
         <f>DATE(2002,9,9)</f>
         <v>37508</v>
       </c>
-      <c r="DN1" s="8">
+      <c r="DO1" s="8">
         <f>DATE(2002,9,11)</f>
         <v>37510</v>
       </c>
-      <c r="DO1" s="8">
+      <c r="DP1" s="8">
         <f>DATE(2002,9,12)</f>
         <v>37511</v>
       </c>
-      <c r="DP1" s="8">
+      <c r="DQ1" s="8">
         <f>DATE(2002,9,15)</f>
         <v>37514</v>
       </c>
-      <c r="DQ1" s="7">
+      <c r="DR1" s="7">
         <f>DATE(2002,9,30)</f>
         <v>37529</v>
       </c>
-      <c r="DR1" s="8">
+      <c r="DS1" s="8">
         <f>DATE(2002,10,3)</f>
         <v>37532</v>
       </c>
-      <c r="DS1" s="7">
+      <c r="DT1" s="7">
         <f>DATE(2002,10,17)</f>
         <v>37546</v>
       </c>
-      <c r="DT1" s="7">
+      <c r="DU1" s="7">
         <f>DATE(2002,10,21)</f>
         <v>37550</v>
       </c>
-      <c r="DU1" s="8">
+      <c r="DV1" s="8">
         <f>DATE(2002,11,19)</f>
         <v>37579</v>
       </c>
-      <c r="DV1" s="8">
+      <c r="DW1" s="8">
         <f>DATE(2002,11,21)</f>
         <v>37581</v>
       </c>
-      <c r="DW1" s="8">
+      <c r="DX1" s="8">
         <f>DATE(2002,11,24)</f>
         <v>37584</v>
       </c>
-      <c r="DX1" s="8">
+      <c r="DY1" s="8">
         <f>DATE(2003,1,3)</f>
         <v>37624</v>
       </c>
-      <c r="DY1" s="8">
+      <c r="DZ1" s="8">
         <f>DATE(2003,1,6)</f>
         <v>37627</v>
       </c>
-      <c r="DZ1" s="7">
+      <c r="EA1" s="7">
         <v>37689</v>
       </c>
-      <c r="EA1" s="7">
+      <c r="EB1" s="7">
         <v>37692</v>
       </c>
-      <c r="EB1" s="7">
+      <c r="EC1" s="7">
         <v>37698</v>
       </c>
-      <c r="EC1" s="7">
+      <c r="ED1" s="7">
         <v>37699</v>
       </c>
-      <c r="ED1" s="7">
+      <c r="EE1" s="7">
         <v>37703</v>
       </c>
-      <c r="EE1" s="7">
+      <c r="EF1" s="7">
         <v>37705</v>
       </c>
-      <c r="EF1" s="7">
+      <c r="EG1" s="7">
         <v>37725</v>
       </c>
-      <c r="EG1" s="7">
+      <c r="EH1" s="7">
         <v>37726</v>
       </c>
-      <c r="EH1" s="7">
+      <c r="EI1" s="7">
         <v>37739</v>
       </c>
-      <c r="EI1" s="7">
+      <c r="EJ1" s="7">
         <v>37741</v>
       </c>
-      <c r="EJ1" s="7">
+      <c r="EK1" s="7">
         <v>37746</v>
       </c>
-      <c r="EK1" s="7">
+      <c r="EL1" s="7">
         <v>37761</v>
       </c>
-      <c r="EL1" s="7">
+      <c r="EM1" s="7">
         <v>37763</v>
       </c>
-      <c r="EM1" s="7">
+      <c r="EN1" s="7">
         <v>37770</v>
       </c>
-      <c r="EN1" s="8">
+      <c r="EO1" s="8">
         <v>37775</v>
       </c>
-      <c r="EO1" s="8">
+      <c r="EP1" s="8">
         <v>37818</v>
       </c>
-      <c r="EP1" s="8">
+      <c r="EQ1" s="8">
         <v>37887</v>
       </c>
-      <c r="EQ1" s="8">
+      <c r="ER1" s="8">
         <v>37894</v>
       </c>
-      <c r="ER1" s="8">
+      <c r="ES1" s="8">
         <v>37906</v>
       </c>
-      <c r="ES1" s="8">
+      <c r="ET1" s="8">
         <v>37908</v>
       </c>
-      <c r="ET1" s="8">
+      <c r="EU1" s="8">
         <v>37910</v>
       </c>
-      <c r="EU1" s="8">
+      <c r="EV1" s="8">
         <v>37925</v>
       </c>
-      <c r="EV1" s="8">
+      <c r="EW1" s="8">
         <v>37928</v>
       </c>
-      <c r="EW1" s="8">
+      <c r="EX1" s="8">
         <v>37971</v>
       </c>
-      <c r="EX1" s="8">
+      <c r="EY1" s="8">
         <v>37973</v>
       </c>
-      <c r="EY1" s="9">
+      <c r="EZ1" s="9">
         <v>37975</v>
       </c>
-      <c r="EZ1" s="8">
+      <c r="FA1" s="8">
         <v>37982</v>
       </c>
-      <c r="FA1" s="8">
+      <c r="FB1" s="8">
         <v>38204</v>
       </c>
-      <c r="FB1" s="8">
+      <c r="FC1" s="8">
         <v>38208</v>
       </c>
-      <c r="FC1" s="9">
+      <c r="FD1" s="9">
         <v>38217</v>
       </c>
-      <c r="FD1" s="9">
+      <c r="FE1" s="9">
         <v>38219</v>
       </c>
-      <c r="FE1" s="8">
+      <c r="FF1" s="8">
         <v>38234</v>
       </c>
-      <c r="FF1" s="9">
+      <c r="FG1" s="9">
         <v>38446</v>
       </c>
-      <c r="FG1" s="9">
+      <c r="FH1" s="9">
         <v>38448</v>
       </c>
-      <c r="FH1" s="7">
+      <c r="FI1" s="7">
         <v>38452</v>
       </c>
-      <c r="FI1" s="7">
+      <c r="FJ1" s="7">
         <v>38453</v>
       </c>
-      <c r="FJ1" s="7">
+      <c r="FK1" s="7">
         <v>38460</v>
       </c>
-      <c r="FK1" s="7">
+      <c r="FL1" s="7">
         <v>38482</v>
       </c>
-      <c r="FL1" s="9">
+      <c r="FM1" s="9">
         <v>38509</v>
       </c>
-      <c r="FM1" s="9">
+      <c r="FN1" s="9">
         <v>38534</v>
       </c>
-      <c r="FN1" s="7">
+      <c r="FO1" s="7">
         <v>38550</v>
       </c>
-      <c r="FO1" s="7">
+      <c r="FP1" s="7">
         <v>38594</v>
       </c>
-      <c r="FP1" s="7">
+      <c r="FQ1" s="7">
         <v>38595</v>
       </c>
-      <c r="FQ1" s="7">
+      <c r="FR1" s="7">
         <v>38614</v>
       </c>
-      <c r="FR1" s="7">
+      <c r="FS1" s="7">
         <v>38616</v>
       </c>
-      <c r="FS1" s="7">
+      <c r="FT1" s="7">
         <v>38618</v>
       </c>
-      <c r="FT1" s="7">
+      <c r="FU1" s="7">
         <v>38623</v>
       </c>
-      <c r="FU1" s="7">
+      <c r="FV1" s="7">
         <v>38638</v>
       </c>
-      <c r="FV1" s="7">
+      <c r="FW1" s="7">
         <v>38641</v>
       </c>
-      <c r="FW1" s="7">
+      <c r="FX1" s="7">
         <v>38643</v>
       </c>
-      <c r="FX1" s="7">
+      <c r="FY1" s="7">
         <v>38651</v>
       </c>
-      <c r="FY1" s="7">
+      <c r="FZ1" s="7">
         <v>38656</v>
       </c>
-      <c r="FZ1" s="7">
+      <c r="GA1" s="7">
         <v>38681</v>
       </c>
-      <c r="GA1" s="9">
+      <c r="GB1" s="9">
         <v>38684</v>
       </c>
-      <c r="GB1" s="7">
+      <c r="GC1" s="7">
         <v>38896</v>
       </c>
-      <c r="GC1" s="9">
+      <c r="GD1" s="9">
         <v>38950</v>
       </c>
-      <c r="GD1" s="9">
+      <c r="GE1" s="9">
         <v>38954</v>
       </c>
-      <c r="GE1" s="9">
+      <c r="GF1" s="9">
         <v>38957</v>
       </c>
-      <c r="GF1" s="9">
+      <c r="GG1" s="9">
         <v>38966</v>
       </c>
-      <c r="GG1" s="9">
+      <c r="GH1" s="9">
         <v>38968</v>
       </c>
-      <c r="GH1" s="9">
+      <c r="GI1" s="9">
         <v>39001</v>
       </c>
-      <c r="GI1" s="9">
+      <c r="GJ1" s="9">
         <v>39020</v>
       </c>
-      <c r="GJ1" s="9">
+      <c r="GK1" s="9">
         <v>39047</v>
       </c>
-      <c r="GK1" s="9">
+      <c r="GL1" s="9">
         <v>39048</v>
       </c>
-      <c r="GL1" s="9">
+      <c r="GM1" s="9">
         <v>38684</v>
       </c>
-      <c r="GM1" s="9">
+      <c r="GN1" s="9">
         <v>39050</v>
       </c>
-      <c r="GN1" s="7">
+      <c r="GO1" s="7">
         <v>39057</v>
       </c>
-      <c r="GO1" s="7"/>
       <c r="GP1" s="7"/>
       <c r="GQ1" s="7"/>
       <c r="GR1" s="7"/>
@@ -8891,496 +8899,496 @@
       <c r="IK1" s="7"/>
       <c r="IL1" s="7"/>
       <c r="IM1" s="7"/>
+      <c r="IN1" s="7"/>
     </row>
-    <row r="2" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20">
+    <row r="2" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="20">
         <v>18</v>
       </c>
-      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>220</v>
       </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>13</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>33</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>350</v>
       </c>
-      <c r="K2" s="3">
-        <v>4.5</v>
-      </c>
       <c r="L2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="M2" s="3">
         <v>17</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>1601</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>130</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>13</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="3">
         <v>23</v>
       </c>
-      <c r="Q2" s="3">
-        <v>2</v>
-      </c>
       <c r="R2" s="3">
+        <v>2</v>
+      </c>
+      <c r="S2" s="3">
         <v>13</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>33</v>
       </c>
-      <c r="T2" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3">
+        <v>1.7</v>
+      </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3">
         <v>13</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>350</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>13</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>79</v>
       </c>
-      <c r="AB2" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3">
+      <c r="AC2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3">
         <v>13</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>79</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>7.8</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>79</v>
       </c>
-      <c r="AH2" s="3">
-        <v>1.7</v>
-      </c>
       <c r="AI2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AJ2" s="3">
         <v>350</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AK2" s="3">
         <v>49</v>
       </c>
-      <c r="AK2" s="3">
-        <v>2</v>
-      </c>
       <c r="AL2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="3">
         <v>13</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AN2" s="3">
         <v>17</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AO2" s="3">
         <v>22</v>
       </c>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3">
-        <v>1.7</v>
-      </c>
+      <c r="AP2" s="3"/>
       <c r="AQ2" s="3">
         <v>1.7</v>
       </c>
       <c r="AR2" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3">
         <v>33</v>
       </c>
-      <c r="AU2" s="3"/>
       <c r="AV2" s="3"/>
-      <c r="AW2" s="3">
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3">
         <v>350</v>
       </c>
-      <c r="AX2" s="3">
+      <c r="AY2" s="3">
         <v>17</v>
       </c>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3">
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3">
         <v>350</v>
       </c>
-      <c r="BA2" s="3">
+      <c r="BB2" s="3">
         <v>33</v>
       </c>
-      <c r="BB2" s="3">
+      <c r="BC2" s="3">
         <v>110</v>
       </c>
-      <c r="BC2" s="3">
+      <c r="BD2" s="3">
         <v>79</v>
       </c>
-      <c r="BD2" s="3">
+      <c r="BE2" s="3">
         <v>13</v>
       </c>
-      <c r="BE2" s="3">
+      <c r="BF2" s="3">
         <v>79</v>
       </c>
-      <c r="BF2" s="3">
-        <v>1.7</v>
-      </c>
       <c r="BG2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="BH2" s="3">
         <v>14</v>
       </c>
-      <c r="BH2" s="3">
+      <c r="BI2" s="3">
         <v>130</v>
       </c>
-      <c r="BI2" s="3">
+      <c r="BJ2" s="3">
         <v>6.8</v>
       </c>
-      <c r="BJ2" s="3">
-        <v>2</v>
-      </c>
-      <c r="BK2" s="3"/>
+      <c r="BK2" s="3">
+        <v>2</v>
+      </c>
       <c r="BL2" s="3"/>
       <c r="BM2" s="3"/>
-      <c r="BN2" s="3">
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3">
         <v>17</v>
       </c>
-      <c r="BO2" s="3">
-        <v>2</v>
-      </c>
-      <c r="BP2" s="3"/>
+      <c r="BP2" s="3">
+        <v>2</v>
+      </c>
       <c r="BQ2" s="3"/>
-      <c r="BR2" s="3">
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3">
         <v>170</v>
       </c>
-      <c r="BS2" s="3">
-        <v>2</v>
-      </c>
       <c r="BT2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BU2" s="3">
         <v>79</v>
       </c>
-      <c r="BU2" s="3">
-        <v>2</v>
-      </c>
       <c r="BV2" s="3">
+        <v>2</v>
+      </c>
+      <c r="BW2" s="3">
         <v>6.8</v>
       </c>
-      <c r="BW2" s="3">
+      <c r="BX2" s="3">
         <v>79</v>
       </c>
-      <c r="BX2" s="3">
-        <v>1.7</v>
-      </c>
       <c r="BY2" s="3">
-        <v>2</v>
-      </c>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="CB2" s="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>2</v>
+      </c>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3">
+        <v>4.5</v>
+      </c>
       <c r="CC2" s="3"/>
-      <c r="CD2" s="3">
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3">
         <v>26</v>
       </c>
-      <c r="CE2" s="3">
+      <c r="CF2" s="3">
         <v>4</v>
       </c>
-      <c r="CF2" s="3">
+      <c r="CG2" s="3">
         <v>49</v>
       </c>
-      <c r="CG2" s="3">
+      <c r="CH2" s="3">
         <v>11</v>
       </c>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3">
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3">
         <v>13</v>
       </c>
-      <c r="CJ2" s="3">
+      <c r="CK2" s="3">
         <v>49</v>
       </c>
-      <c r="CK2" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="CL2" s="3"/>
+      <c r="CL2" s="3">
+        <v>1.7</v>
+      </c>
       <c r="CM2" s="3"/>
-      <c r="CN2" s="3">
-        <v>2</v>
-      </c>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3">
-        <v>4.5</v>
-      </c>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP2" s="3"/>
       <c r="CQ2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="CR2" s="3">
         <v>6.8</v>
       </c>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3">
+      <c r="CS2" s="3"/>
+      <c r="CT2" s="3">
         <v>23</v>
       </c>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3">
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3">
         <v>7.8</v>
       </c>
-      <c r="CV2" s="3">
+      <c r="CW2" s="3">
         <v>33</v>
       </c>
-      <c r="CW2" s="3">
+      <c r="CX2" s="3">
         <v>17</v>
       </c>
-      <c r="CX2" s="3">
+      <c r="CY2" s="3">
         <v>49</v>
       </c>
-      <c r="CY2" s="3">
+      <c r="CZ2" s="3">
         <v>79</v>
       </c>
-      <c r="CZ2" s="3"/>
-      <c r="DA2" s="3">
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3">
         <v>79</v>
       </c>
-      <c r="DB2" s="3">
-        <v>1.7</v>
-      </c>
       <c r="DC2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="DD2" s="3">
         <v>13</v>
       </c>
-      <c r="DD2" s="3"/>
       <c r="DE2" s="3"/>
-      <c r="DF2" s="3">
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3">
         <v>17</v>
       </c>
-      <c r="DG2" s="3">
+      <c r="DH2" s="3">
         <v>6.8</v>
       </c>
-      <c r="DH2" s="3">
+      <c r="DI2" s="3">
         <v>350</v>
       </c>
-      <c r="DI2" s="3">
+      <c r="DJ2" s="3">
         <v>11</v>
       </c>
-      <c r="DJ2" s="3">
+      <c r="DK2" s="3">
         <v>350</v>
       </c>
-      <c r="DK2" s="3">
+      <c r="DL2" s="3">
         <v>1600</v>
       </c>
-      <c r="DL2" s="3">
+      <c r="DM2" s="3">
         <v>79</v>
       </c>
-      <c r="DM2" s="3">
-        <v>2</v>
-      </c>
-      <c r="DN2" s="3"/>
-      <c r="DO2" s="3">
+      <c r="DN2" s="3">
+        <v>2</v>
+      </c>
+      <c r="DO2" s="3"/>
+      <c r="DP2" s="3">
         <v>920</v>
       </c>
-      <c r="DP2" s="3">
+      <c r="DQ2" s="3">
         <v>22</v>
       </c>
-      <c r="DQ2" s="3">
-        <v>2</v>
-      </c>
-      <c r="DR2" s="3"/>
+      <c r="DR2" s="3">
+        <v>2</v>
+      </c>
       <c r="DS2" s="3"/>
       <c r="DT2" s="3"/>
-      <c r="DU2" s="3">
+      <c r="DU2" s="3"/>
+      <c r="DV2" s="3">
         <v>170</v>
       </c>
-      <c r="DV2" s="3">
+      <c r="DW2" s="3">
         <v>23</v>
       </c>
-      <c r="DW2" s="3">
+      <c r="DX2" s="3">
         <v>6.8</v>
       </c>
-      <c r="DX2" s="3">
+      <c r="DY2" s="3">
         <v>1600</v>
       </c>
-      <c r="DY2" s="3">
+      <c r="DZ2" s="3">
         <v>11</v>
       </c>
-      <c r="DZ2" s="3"/>
-      <c r="EA2" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="EB2" s="3"/>
-      <c r="EC2" s="3">
+      <c r="EA2" s="3"/>
+      <c r="EB2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="EC2" s="3"/>
+      <c r="ED2" s="3">
         <v>7.8</v>
       </c>
-      <c r="ED2" s="3"/>
-      <c r="EE2" s="3">
-        <v>1.7</v>
-      </c>
+      <c r="EE2" s="3"/>
       <c r="EF2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="EG2" s="3">
         <v>11</v>
       </c>
-      <c r="EG2" s="3"/>
-      <c r="EH2" s="3">
+      <c r="EH2" s="3"/>
+      <c r="EI2" s="3">
         <v>23</v>
       </c>
-      <c r="EI2" s="3"/>
-      <c r="EJ2" s="3">
-        <v>4.5</v>
-      </c>
+      <c r="EJ2" s="3"/>
       <c r="EK2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="EL2" s="3">
         <v>21</v>
       </c>
-      <c r="EL2" s="3">
-        <v>2</v>
-      </c>
       <c r="EM2" s="3">
+        <v>2</v>
+      </c>
+      <c r="EN2" s="3">
         <v>17</v>
       </c>
-      <c r="EN2" s="3">
-        <v>4.5</v>
-      </c>
       <c r="EO2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="EP2" s="3">
         <v>22</v>
       </c>
-      <c r="EP2" s="3"/>
-      <c r="EQ2" s="3">
-        <v>4.5</v>
-      </c>
+      <c r="EQ2" s="3"/>
       <c r="ER2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="ES2" s="3">
         <v>170</v>
       </c>
-      <c r="ES2" s="3">
+      <c r="ET2" s="3">
         <v>23</v>
       </c>
-      <c r="ET2" s="3">
+      <c r="EU2" s="3">
         <v>13</v>
       </c>
-      <c r="EU2" s="3">
+      <c r="EV2" s="3">
         <v>22</v>
       </c>
-      <c r="EV2" s="3">
-        <v>4.5</v>
-      </c>
       <c r="EW2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="EX2" s="3">
         <v>130</v>
       </c>
-      <c r="EX2" s="3">
+      <c r="EY2" s="3">
         <v>17</v>
       </c>
-      <c r="EY2" s="3"/>
-      <c r="EZ2" s="3">
-        <v>4.5</v>
-      </c>
+      <c r="EZ2" s="3"/>
       <c r="FA2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="FB2" s="3">
         <v>110</v>
       </c>
-      <c r="FB2" s="3">
-        <v>2</v>
-      </c>
       <c r="FC2" s="3">
+        <v>2</v>
+      </c>
+      <c r="FD2" s="3">
         <v>33</v>
       </c>
-      <c r="FD2" s="3">
-        <v>1.7</v>
-      </c>
       <c r="FE2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="FF2" s="3">
         <v>13</v>
       </c>
-      <c r="FF2" s="3"/>
-      <c r="FG2" s="3">
-        <v>1.7</v>
-      </c>
+      <c r="FG2" s="3"/>
       <c r="FH2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="FI2" s="3">
         <v>33</v>
       </c>
-      <c r="FI2" s="3">
+      <c r="FJ2" s="3">
         <v>79</v>
-      </c>
-      <c r="FJ2" s="3">
-        <v>22</v>
       </c>
       <c r="FK2" s="3">
         <v>22</v>
       </c>
       <c r="FL2" s="3">
-        <v>4.5</v>
+        <v>22</v>
       </c>
       <c r="FM2" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="FN2" s="4">
-        <v>2</v>
-      </c>
-      <c r="FO2" s="4"/>
-      <c r="FP2" s="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="FN2" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="FO2" s="4">
+        <v>2</v>
+      </c>
+      <c r="FP2" s="4"/>
       <c r="FQ2" s="6"/>
-      <c r="FR2" s="6">
+      <c r="FR2" s="6"/>
+      <c r="FS2" s="6">
         <v>79</v>
       </c>
-      <c r="FS2" s="6">
+      <c r="FT2" s="6">
         <v>120</v>
       </c>
-      <c r="FT2" s="6">
-        <v>1.7</v>
-      </c>
       <c r="FU2" s="6">
-        <v>23</v>
+        <v>1.7</v>
       </c>
       <c r="FV2" s="6">
         <v>23</v>
       </c>
       <c r="FW2" s="6">
-        <v>1.7</v>
+        <v>23</v>
       </c>
       <c r="FX2" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="FY2" s="6">
         <v>240</v>
       </c>
-      <c r="FY2" s="6">
-        <v>2</v>
-      </c>
       <c r="FZ2" s="6">
+        <v>2</v>
+      </c>
+      <c r="GA2" s="6">
         <v>17</v>
       </c>
-      <c r="GA2" s="6"/>
       <c r="GB2" s="6"/>
-      <c r="GC2" s="6">
-        <v>1.7</v>
-      </c>
+      <c r="GC2" s="6"/>
       <c r="GD2" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="GE2" s="6">
         <v>130</v>
       </c>
-      <c r="GE2" s="6">
-        <v>1.7</v>
-      </c>
       <c r="GF2" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="GG2" s="6">
         <v>79</v>
-      </c>
-      <c r="GG2" s="6">
-        <v>13</v>
       </c>
       <c r="GH2" s="6">
         <v>13</v>
       </c>
-      <c r="GJ2" s="6">
+      <c r="GI2" s="6">
+        <v>13</v>
+      </c>
+      <c r="GK2" s="6">
         <v>110</v>
       </c>
-      <c r="GK2" s="6"/>
       <c r="GL2" s="6"/>
-      <c r="GM2" s="6">
+      <c r="GM2" s="6"/>
+      <c r="GN2" s="6">
         <v>33</v>
       </c>
-      <c r="GN2" s="6">
-        <v>2</v>
-      </c>
-      <c r="GO2" s="6"/>
+      <c r="GO2" s="6">
+        <v>2</v>
+      </c>
       <c r="GP2" s="6"/>
       <c r="GQ2" s="6"/>
       <c r="GR2" s="6"/>
@@ -9431,488 +9439,488 @@
       <c r="IK2" s="6"/>
       <c r="IL2" s="6"/>
       <c r="IM2" s="6"/>
+      <c r="IN2" s="6"/>
     </row>
-    <row r="3" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20">
+    <row r="3" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="20">
         <v>22</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>49</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>540</v>
       </c>
-      <c r="E3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="F3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="G3" s="3">
         <v>130</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>31</v>
       </c>
-      <c r="H3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
+      <c r="I3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>79</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
         <v>7.8</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>350</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>33</v>
       </c>
-      <c r="O3" s="3">
-        <v>2</v>
-      </c>
       <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
         <v>6.8</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3">
         <v>7.8</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>22</v>
       </c>
-      <c r="T3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="U3" s="3">
         <v>1.7</v>
       </c>
       <c r="V3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="W3" s="3">
         <v>7.8</v>
-      </c>
-      <c r="W3" s="3">
-        <v>49</v>
       </c>
       <c r="X3" s="3">
         <v>49</v>
       </c>
       <c r="Y3" s="3">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="3">
         <v>79</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="AA3" s="3">
         <v>33</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AB3" s="3">
         <v>540</v>
       </c>
-      <c r="AB3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="AC3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AD3" s="3">
         <v>33</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AE3" s="3">
         <v>79</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AF3" s="3">
         <v>7.8</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AG3" s="3">
         <v>33</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AH3" s="3">
         <v>170</v>
       </c>
-      <c r="AH3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="AI3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AJ3" s="3">
         <v>220</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AK3" s="3">
         <v>49</v>
       </c>
-      <c r="AK3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="AL3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AM3" s="3">
         <v>13</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AN3" s="3">
         <v>240</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3" s="3">
         <v>13</v>
       </c>
-      <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
-      <c r="AR3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AU3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3">
+        <v>1.7</v>
+      </c>
       <c r="AV3" s="3"/>
-      <c r="AW3" s="3">
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3">
         <v>23</v>
       </c>
-      <c r="AX3" s="3">
+      <c r="AY3" s="3">
         <v>49</v>
       </c>
-      <c r="AY3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="AZ3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="BA3" s="3">
         <v>350</v>
       </c>
-      <c r="BA3" s="3">
+      <c r="BB3" s="3">
         <v>17</v>
       </c>
-      <c r="BB3" s="3">
+      <c r="BC3" s="3">
         <v>130</v>
       </c>
-      <c r="BC3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="BD3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="BE3" s="3">
         <v>70</v>
       </c>
-      <c r="BE3" s="3">
+      <c r="BF3" s="3">
         <v>13</v>
       </c>
-      <c r="BF3" s="3">
+      <c r="BG3" s="3">
         <v>110</v>
       </c>
-      <c r="BG3" s="3">
+      <c r="BH3" s="3">
         <v>26</v>
       </c>
-      <c r="BH3" s="3">
-        <v>4.5</v>
-      </c>
       <c r="BI3" s="3">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="BJ3" s="3">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="3">
         <v>7.8</v>
       </c>
-      <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
       <c r="BM3" s="3"/>
-      <c r="BN3" s="3">
-        <v>1.7</v>
-      </c>
+      <c r="BN3" s="3"/>
       <c r="BO3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="BP3" s="3">
         <v>17</v>
       </c>
-      <c r="BP3" s="3"/>
       <c r="BQ3" s="3"/>
       <c r="BR3" s="3"/>
-      <c r="BS3" s="3">
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3">
         <v>23</v>
       </c>
-      <c r="BT3" s="3">
+      <c r="BU3" s="3">
         <v>33</v>
       </c>
-      <c r="BU3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3">
+      <c r="BV3" s="3">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3">
         <v>49</v>
       </c>
-      <c r="BX3" s="3">
+      <c r="BY3" s="3">
         <v>6.8</v>
       </c>
-      <c r="BY3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BZ3" s="3"/>
-      <c r="CA3" s="3">
+      <c r="BZ3" s="3">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3">
         <v>7.8</v>
       </c>
-      <c r="CB3" s="3"/>
       <c r="CC3" s="3"/>
-      <c r="CD3" s="3">
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3">
         <v>23</v>
       </c>
-      <c r="CE3" s="3">
+      <c r="CF3" s="3">
         <v>1.8</v>
       </c>
-      <c r="CF3" s="3">
+      <c r="CG3" s="3">
         <v>6.8</v>
       </c>
-      <c r="CG3" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="CH3" s="3"/>
-      <c r="CI3" s="3">
-        <v>4.5</v>
-      </c>
+      <c r="CH3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="CI3" s="3"/>
       <c r="CJ3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="CK3" s="3">
         <v>170</v>
       </c>
-      <c r="CK3" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="CL3" s="3"/>
+      <c r="CL3" s="3">
+        <v>4.5</v>
+      </c>
       <c r="CM3" s="3"/>
-      <c r="CN3" s="3">
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3">
         <v>1.8</v>
       </c>
-      <c r="CO3" s="3"/>
-      <c r="CP3" s="3">
-        <v>2</v>
-      </c>
+      <c r="CP3" s="3"/>
       <c r="CQ3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="CR3" s="3"/>
-      <c r="CS3" s="3">
+        <v>2</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="CS3" s="3"/>
+      <c r="CT3" s="3">
         <v>49</v>
       </c>
-      <c r="CT3" s="3"/>
-      <c r="CU3" s="3">
+      <c r="CU3" s="3"/>
+      <c r="CV3" s="3">
         <v>33</v>
       </c>
-      <c r="CV3" s="3">
+      <c r="CW3" s="3">
         <v>7.8</v>
       </c>
-      <c r="CW3" s="3">
+      <c r="CX3" s="3">
         <v>23</v>
       </c>
-      <c r="CX3" s="3">
+      <c r="CY3" s="3">
         <v>7.8</v>
       </c>
-      <c r="CY3" s="3">
+      <c r="CZ3" s="3">
         <v>17</v>
       </c>
-      <c r="CZ3" s="3"/>
-      <c r="DA3" s="3">
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3">
         <v>11</v>
       </c>
-      <c r="DB3" s="3">
-        <v>2</v>
-      </c>
       <c r="DC3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DD3" s="3">
         <v>1.8</v>
       </c>
-      <c r="DD3" s="3"/>
       <c r="DE3" s="3"/>
-      <c r="DF3" s="3">
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3">
         <v>170</v>
       </c>
-      <c r="DG3" s="3">
+      <c r="DH3" s="3">
         <v>17</v>
       </c>
-      <c r="DH3" s="3">
+      <c r="DI3" s="3">
         <v>49</v>
       </c>
-      <c r="DI3" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="DJ3" s="3"/>
-      <c r="DK3" s="3">
+      <c r="DJ3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="DK3" s="3"/>
+      <c r="DL3" s="3">
         <v>33</v>
       </c>
-      <c r="DL3" s="3">
-        <v>4.5</v>
-      </c>
       <c r="DM3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="DN3" s="3">
         <v>33</v>
       </c>
-      <c r="DN3" s="3"/>
-      <c r="DO3" s="3">
+      <c r="DO3" s="3"/>
+      <c r="DP3" s="3">
         <v>240</v>
-      </c>
-      <c r="DP3" s="3">
-        <v>23</v>
       </c>
       <c r="DQ3" s="3">
         <v>23</v>
       </c>
       <c r="DR3" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="DS3" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="DS3" s="3">
+        <v>4.5</v>
+      </c>
       <c r="DT3" s="3"/>
-      <c r="DU3" s="3">
+      <c r="DU3" s="3"/>
+      <c r="DV3" s="3">
         <v>70</v>
       </c>
-      <c r="DV3" s="3">
+      <c r="DW3" s="3">
         <v>7.8</v>
       </c>
-      <c r="DW3" s="3">
-        <v>4.5</v>
-      </c>
       <c r="DX3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="DY3" s="3">
         <v>130</v>
       </c>
-      <c r="DY3" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="DZ3" s="3"/>
-      <c r="EA3" s="3">
-        <v>2</v>
-      </c>
-      <c r="EB3" s="3"/>
-      <c r="EC3" s="3">
+      <c r="DZ3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="EA3" s="3"/>
+      <c r="EB3" s="3">
+        <v>2</v>
+      </c>
+      <c r="EC3" s="3"/>
+      <c r="ED3" s="3">
         <v>23</v>
       </c>
-      <c r="ED3" s="3"/>
-      <c r="EE3" s="3">
+      <c r="EE3" s="3"/>
+      <c r="EF3" s="3">
         <v>7.8</v>
       </c>
-      <c r="EF3" s="3">
+      <c r="EG3" s="3">
         <v>33</v>
       </c>
-      <c r="EG3" s="3"/>
-      <c r="EH3" s="3">
-        <v>2</v>
-      </c>
-      <c r="EI3" s="3"/>
-      <c r="EJ3" s="3">
+      <c r="EH3" s="3"/>
+      <c r="EI3" s="3">
+        <v>2</v>
+      </c>
+      <c r="EJ3" s="3"/>
+      <c r="EK3" s="3">
         <v>23</v>
       </c>
-      <c r="EK3" s="3">
+      <c r="EL3" s="3">
         <v>49</v>
       </c>
-      <c r="EL3" s="3">
+      <c r="EM3" s="3">
         <v>13</v>
       </c>
-      <c r="EM3" s="3">
+      <c r="EN3" s="3">
         <v>23</v>
       </c>
-      <c r="EN3" s="3">
-        <v>4.5</v>
-      </c>
       <c r="EO3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="EP3" s="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="EP3" s="3">
+        <v>1.7</v>
+      </c>
       <c r="EQ3" s="3"/>
-      <c r="ER3" s="3">
+      <c r="ER3" s="3"/>
+      <c r="ES3" s="3">
         <v>49</v>
       </c>
-      <c r="ES3" s="3">
+      <c r="ET3" s="3">
         <v>17</v>
       </c>
-      <c r="ET3" s="3">
-        <v>4.5</v>
-      </c>
       <c r="EU3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="EV3" s="3">
         <v>64</v>
       </c>
-      <c r="EV3" s="3">
+      <c r="EW3" s="3">
         <v>7.8</v>
       </c>
-      <c r="EW3" s="3">
+      <c r="EX3" s="3">
         <v>49</v>
       </c>
-      <c r="EX3" s="3">
-        <v>2</v>
-      </c>
-      <c r="EY3" s="3"/>
-      <c r="EZ3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="FA3" s="3"/>
-      <c r="FB3" s="3">
-        <v>4.5</v>
-      </c>
+      <c r="EY3" s="3">
+        <v>2</v>
+      </c>
+      <c r="EZ3" s="3"/>
+      <c r="FA3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="FB3" s="3"/>
       <c r="FC3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="FD3" s="3">
         <v>13</v>
       </c>
-      <c r="FD3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="FE3" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="FF3" s="3"/>
-      <c r="FG3" s="3">
-        <v>1.7</v>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="FF3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="FG3" s="3"/>
       <c r="FH3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="FI3" s="3">
         <v>23</v>
       </c>
-      <c r="FI3" s="3">
-        <v>1.7</v>
-      </c>
       <c r="FJ3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="FK3" s="3">
         <v>6.8</v>
-      </c>
-      <c r="FK3" s="3">
-        <v>7.8</v>
       </c>
       <c r="FL3" s="3">
         <v>7.8</v>
       </c>
       <c r="FM3" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="FN3" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="FO3" s="4"/>
-      <c r="FP3" s="6"/>
+        <v>7.8</v>
+      </c>
+      <c r="FN3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="FO3" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="FP3" s="4"/>
       <c r="FQ3" s="6"/>
-      <c r="FR3" s="6">
+      <c r="FR3" s="6"/>
+      <c r="FS3" s="6">
         <v>13</v>
       </c>
-      <c r="FS3" s="6">
+      <c r="FT3" s="6">
         <v>17</v>
       </c>
-      <c r="FT3" s="6">
-        <v>4.5</v>
-      </c>
       <c r="FU3" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="FV3" s="6">
         <v>13</v>
       </c>
-      <c r="FV3" s="6"/>
-      <c r="FW3" s="6">
-        <v>1.7</v>
-      </c>
+      <c r="FW3" s="6"/>
       <c r="FX3" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="FY3" s="6">
         <v>11</v>
       </c>
-      <c r="FY3" s="6">
+      <c r="FZ3" s="6">
         <v>6.8</v>
       </c>
-      <c r="FZ3" s="6">
+      <c r="GA3" s="6">
         <v>7.8</v>
       </c>
-      <c r="GA3" s="6"/>
       <c r="GB3" s="6"/>
-      <c r="GC3" s="6">
-        <v>1.7</v>
-      </c>
+      <c r="GC3" s="6"/>
       <c r="GD3" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="GE3" s="6">
         <v>49</v>
       </c>
-      <c r="GE3" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="GF3" s="6"/>
-      <c r="GG3" s="6">
+      <c r="GF3" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="GG3" s="6"/>
+      <c r="GH3" s="6">
         <v>22</v>
       </c>
-      <c r="GH3" s="6">
+      <c r="GI3" s="6">
         <v>21</v>
       </c>
-      <c r="GJ3" s="6"/>
       <c r="GK3" s="6"/>
       <c r="GL3" s="6"/>
-      <c r="GM3" s="6">
+      <c r="GM3" s="6"/>
+      <c r="GN3" s="6">
         <v>7.8</v>
       </c>
-      <c r="GN3" s="6">
+      <c r="GO3" s="6">
         <v>11</v>
       </c>
-      <c r="GO3" s="6"/>
       <c r="GP3" s="6"/>
       <c r="GQ3" s="6"/>
       <c r="GR3" s="6"/>
@@ -9963,12 +9971,12 @@
       <c r="IK3" s="6"/>
       <c r="IL3" s="6"/>
       <c r="IM3" s="6"/>
+      <c r="IN3" s="6"/>
     </row>
-    <row r="4" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20">
+    <row r="4" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="20">
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -10011,10 +10019,10 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
-      <c r="AS4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3">
+        <v>2</v>
+      </c>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
@@ -10038,62 +10046,62 @@
       <c r="BO4" s="3"/>
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
-      <c r="BR4" s="3">
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3">
         <v>79</v>
       </c>
-      <c r="BS4" s="3"/>
       <c r="BT4" s="3"/>
       <c r="BU4" s="3"/>
-      <c r="BV4" s="3">
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3">
         <v>13</v>
       </c>
-      <c r="BW4" s="3"/>
       <c r="BX4" s="3"/>
       <c r="BY4" s="3"/>
-      <c r="BZ4" s="3">
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3">
         <v>13</v>
       </c>
-      <c r="CA4" s="3"/>
       <c r="CB4" s="3"/>
       <c r="CC4" s="3"/>
       <c r="CD4" s="3"/>
       <c r="CE4" s="3"/>
       <c r="CF4" s="3"/>
       <c r="CG4" s="3"/>
-      <c r="CH4" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="CI4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3">
+        <v>1.7</v>
+      </c>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
-      <c r="CM4" s="3">
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3">
         <v>49</v>
       </c>
-      <c r="CN4" s="3"/>
-      <c r="CO4" s="3">
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3">
         <v>170</v>
       </c>
-      <c r="CP4" s="3"/>
       <c r="CQ4" s="3"/>
       <c r="CR4" s="3"/>
       <c r="CS4" s="3"/>
       <c r="CT4" s="3"/>
       <c r="CU4" s="3"/>
       <c r="CV4" s="3"/>
-      <c r="CW4" s="3">
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3">
         <v>70</v>
       </c>
-      <c r="CX4" s="3"/>
       <c r="CY4" s="3"/>
       <c r="CZ4" s="3"/>
       <c r="DA4" s="3"/>
       <c r="DB4" s="3"/>
       <c r="DC4" s="3"/>
-      <c r="DD4" s="3">
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3">
         <v>130</v>
       </c>
-      <c r="DE4" s="3"/>
       <c r="DF4" s="3"/>
       <c r="DG4" s="3"/>
       <c r="DH4" s="3"/>
@@ -10102,10 +10110,10 @@
       <c r="DK4" s="3"/>
       <c r="DL4" s="3"/>
       <c r="DM4" s="3"/>
-      <c r="DN4" s="3">
+      <c r="DN4" s="3"/>
+      <c r="DO4" s="3">
         <v>1600</v>
       </c>
-      <c r="DO4" s="3"/>
       <c r="DP4" s="3"/>
       <c r="DQ4" s="3"/>
       <c r="DR4" s="3"/>
@@ -10118,10 +10126,10 @@
       <c r="DY4" s="3"/>
       <c r="DZ4" s="3"/>
       <c r="EA4" s="3"/>
-      <c r="EB4" s="3">
+      <c r="EB4" s="3"/>
+      <c r="EC4" s="3">
         <v>350</v>
       </c>
-      <c r="EC4" s="3"/>
       <c r="ED4" s="3"/>
       <c r="EE4" s="3"/>
       <c r="EF4" s="3"/>
@@ -10151,12 +10159,12 @@
       <c r="FD4" s="3"/>
       <c r="FE4" s="3"/>
       <c r="FF4" s="3"/>
-      <c r="FG4" s="4"/>
+      <c r="FG4" s="3"/>
       <c r="FH4" s="4"/>
       <c r="FI4" s="4"/>
       <c r="FJ4" s="4"/>
       <c r="FK4" s="4"/>
-      <c r="FL4" s="6"/>
+      <c r="FL4" s="4"/>
       <c r="FM4" s="6"/>
       <c r="FN4" s="6"/>
       <c r="FO4" s="6"/>
@@ -10179,7 +10187,7 @@
       <c r="GF4" s="6"/>
       <c r="GG4" s="6"/>
       <c r="GH4" s="6"/>
-      <c r="GJ4" s="6"/>
+      <c r="GI4" s="6"/>
       <c r="GK4" s="6"/>
       <c r="GL4" s="6"/>
       <c r="GM4" s="6"/>
@@ -10235,12 +10243,12 @@
       <c r="IK4" s="6"/>
       <c r="IL4" s="6"/>
       <c r="IM4" s="6"/>
+      <c r="IN4" s="6"/>
     </row>
-    <row r="5" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20">
+    <row r="5" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -10352,10 +10360,10 @@
       <c r="DG5" s="3"/>
       <c r="DH5" s="3"/>
       <c r="DI5" s="3"/>
-      <c r="DJ5" s="3">
+      <c r="DJ5" s="3"/>
+      <c r="DK5" s="3">
         <v>23</v>
       </c>
-      <c r="DK5" s="3"/>
       <c r="DL5" s="3"/>
       <c r="DM5" s="3"/>
       <c r="DN5" s="3"/>
@@ -10403,12 +10411,12 @@
       <c r="FD5" s="3"/>
       <c r="FE5" s="3"/>
       <c r="FF5" s="3"/>
-      <c r="FG5" s="4"/>
+      <c r="FG5" s="3"/>
       <c r="FH5" s="4"/>
       <c r="FI5" s="4"/>
       <c r="FJ5" s="4"/>
       <c r="FK5" s="4"/>
-      <c r="FL5" s="6"/>
+      <c r="FL5" s="4"/>
       <c r="FM5" s="6"/>
       <c r="FN5" s="6"/>
       <c r="FO5" s="6"/>
@@ -10431,7 +10439,7 @@
       <c r="GF5" s="6"/>
       <c r="GG5" s="6"/>
       <c r="GH5" s="6"/>
-      <c r="GJ5" s="6"/>
+      <c r="GI5" s="6"/>
       <c r="GK5" s="6"/>
       <c r="GL5" s="6"/>
       <c r="GM5" s="6"/>
@@ -10487,12 +10495,12 @@
       <c r="IK5" s="6"/>
       <c r="IL5" s="6"/>
       <c r="IM5" s="6"/>
+      <c r="IN5" s="6"/>
     </row>
-    <row r="6" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -10653,19 +10661,19 @@
       <c r="FD6" s="3"/>
       <c r="FE6" s="3"/>
       <c r="FF6" s="3"/>
-      <c r="FG6" s="4"/>
+      <c r="FG6" s="3"/>
       <c r="FH6" s="4"/>
       <c r="FI6" s="4"/>
       <c r="FJ6" s="4"/>
       <c r="FK6" s="4"/>
-      <c r="FL6" s="6"/>
+      <c r="FL6" s="4"/>
       <c r="FM6" s="6"/>
       <c r="FN6" s="6"/>
       <c r="FO6" s="6"/>
-      <c r="FP6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="FQ6" s="6"/>
+      <c r="FP6" s="6"/>
+      <c r="FQ6" s="6">
+        <v>4.5</v>
+      </c>
       <c r="FR6" s="6"/>
       <c r="FS6" s="6"/>
       <c r="FT6" s="6"/>
@@ -10676,16 +10684,16 @@
       <c r="FY6" s="6"/>
       <c r="FZ6" s="6"/>
       <c r="GA6" s="6"/>
-      <c r="GB6" s="6">
+      <c r="GB6" s="6"/>
+      <c r="GC6" s="6">
         <v>49</v>
       </c>
-      <c r="GC6" s="6"/>
       <c r="GD6" s="6"/>
       <c r="GE6" s="6"/>
       <c r="GF6" s="6"/>
       <c r="GG6" s="6"/>
       <c r="GH6" s="6"/>
-      <c r="GJ6" s="6"/>
+      <c r="GI6" s="6"/>
       <c r="GK6" s="6"/>
       <c r="GL6" s="6"/>
       <c r="GM6" s="6"/>
@@ -10741,12 +10749,12 @@
       <c r="IK6" s="6"/>
       <c r="IL6" s="6"/>
       <c r="IM6" s="6"/>
+      <c r="IN6" s="6"/>
     </row>
-    <row r="7" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -10907,20 +10915,20 @@
       <c r="FD7" s="3"/>
       <c r="FE7" s="3"/>
       <c r="FF7" s="3"/>
-      <c r="FG7" s="4"/>
+      <c r="FG7" s="3"/>
       <c r="FH7" s="4"/>
       <c r="FI7" s="4"/>
       <c r="FJ7" s="4"/>
       <c r="FK7" s="4"/>
-      <c r="FL7" s="6"/>
+      <c r="FL7" s="4"/>
       <c r="FM7" s="6"/>
       <c r="FN7" s="6"/>
       <c r="FO7" s="6"/>
       <c r="FP7" s="6"/>
-      <c r="FQ7" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="FR7" s="6"/>
+      <c r="FQ7" s="6"/>
+      <c r="FR7" s="6">
+        <v>1.7</v>
+      </c>
       <c r="FS7" s="6"/>
       <c r="FT7" s="6"/>
       <c r="FU7" s="6"/>
@@ -10937,7 +10945,7 @@
       <c r="GF7" s="6"/>
       <c r="GG7" s="6"/>
       <c r="GH7" s="6"/>
-      <c r="GJ7" s="6"/>
+      <c r="GI7" s="6"/>
       <c r="GK7" s="6"/>
       <c r="GL7" s="6"/>
       <c r="GM7" s="6"/>
@@ -10993,12 +11001,12 @@
       <c r="IK7" s="6"/>
       <c r="IL7" s="6"/>
       <c r="IM7" s="6"/>
+      <c r="IN7" s="6"/>
     </row>
-    <row r="8" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -11159,24 +11167,24 @@
       <c r="FD8" s="3"/>
       <c r="FE8" s="3"/>
       <c r="FF8" s="3"/>
-      <c r="FG8" s="4"/>
+      <c r="FG8" s="3"/>
       <c r="FH8" s="4"/>
       <c r="FI8" s="4"/>
       <c r="FJ8" s="4"/>
       <c r="FK8" s="4"/>
-      <c r="FL8" s="6"/>
+      <c r="FL8" s="4"/>
       <c r="FM8" s="6"/>
       <c r="FN8" s="6"/>
-      <c r="FO8" s="6">
+      <c r="FO8" s="6"/>
+      <c r="FP8" s="6">
         <v>170</v>
       </c>
-      <c r="FP8" s="6">
-        <v>1.7</v>
-      </c>
       <c r="FQ8" s="6">
         <v>1.7</v>
       </c>
-      <c r="FR8" s="6"/>
+      <c r="FR8" s="6">
+        <v>1.7</v>
+      </c>
       <c r="FS8" s="6"/>
       <c r="FT8" s="6"/>
       <c r="FU8" s="6"/>
@@ -11193,7 +11201,7 @@
       <c r="GF8" s="6"/>
       <c r="GG8" s="6"/>
       <c r="GH8" s="6"/>
-      <c r="GJ8" s="6"/>
+      <c r="GI8" s="6"/>
       <c r="GK8" s="6"/>
       <c r="GL8" s="6"/>
       <c r="GM8" s="6"/>
@@ -11249,12 +11257,12 @@
       <c r="IK8" s="6"/>
       <c r="IL8" s="6"/>
       <c r="IM8" s="6"/>
+      <c r="IN8" s="6"/>
     </row>
-    <row r="9" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -11415,21 +11423,21 @@
       <c r="FD9" s="3"/>
       <c r="FE9" s="3"/>
       <c r="FF9" s="3"/>
-      <c r="FG9" s="4"/>
+      <c r="FG9" s="3"/>
       <c r="FH9" s="4"/>
       <c r="FI9" s="4"/>
       <c r="FJ9" s="4"/>
       <c r="FK9" s="4"/>
-      <c r="FL9" s="6"/>
+      <c r="FL9" s="4"/>
       <c r="FM9" s="6"/>
       <c r="FN9" s="6"/>
-      <c r="FO9" s="6">
+      <c r="FO9" s="6"/>
+      <c r="FP9" s="6">
         <v>130</v>
       </c>
-      <c r="FP9" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="FQ9" s="6"/>
+      <c r="FQ9" s="6">
+        <v>1.7</v>
+      </c>
       <c r="FR9" s="6"/>
       <c r="FS9" s="6"/>
       <c r="FT9" s="6"/>
@@ -11447,7 +11455,7 @@
       <c r="GF9" s="6"/>
       <c r="GG9" s="6"/>
       <c r="GH9" s="6"/>
-      <c r="GJ9" s="6"/>
+      <c r="GI9" s="6"/>
       <c r="GK9" s="6"/>
       <c r="GL9" s="6"/>
       <c r="GM9" s="6"/>
@@ -11503,12 +11511,12 @@
       <c r="IK9" s="6"/>
       <c r="IL9" s="6"/>
       <c r="IM9" s="6"/>
+      <c r="IN9" s="6"/>
     </row>
-    <row r="10" spans="1:247" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:248" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -11669,20 +11677,20 @@
       <c r="FD10" s="3"/>
       <c r="FE10" s="3"/>
       <c r="FF10" s="3"/>
-      <c r="FG10" s="4"/>
+      <c r="FG10" s="3"/>
       <c r="FH10" s="4"/>
       <c r="FI10" s="4"/>
       <c r="FJ10" s="4"/>
       <c r="FK10" s="4"/>
-      <c r="FL10" s="6"/>
+      <c r="FL10" s="4"/>
       <c r="FM10" s="6"/>
       <c r="FN10" s="6"/>
       <c r="FO10" s="6"/>
       <c r="FP10" s="6"/>
-      <c r="FQ10" s="6">
+      <c r="FQ10" s="6"/>
+      <c r="FR10" s="6">
         <v>350</v>
       </c>
-      <c r="FR10" s="6"/>
       <c r="FS10" s="6"/>
       <c r="FT10" s="6"/>
       <c r="FU10" s="6"/>
@@ -11699,7 +11707,7 @@
       <c r="GF10" s="6"/>
       <c r="GG10" s="6"/>
       <c r="GH10" s="6"/>
-      <c r="GJ10" s="6"/>
+      <c r="GI10" s="6"/>
       <c r="GK10" s="6"/>
       <c r="GL10" s="6"/>
       <c r="GM10" s="6"/>
@@ -11755,12 +11763,12 @@
       <c r="IK10" s="6"/>
       <c r="IL10" s="6"/>
       <c r="IM10" s="6"/>
+      <c r="IN10" s="6"/>
     </row>
-    <row r="11" spans="1:247" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:248" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -11827,10 +11835,10 @@
       <c r="BN11" s="3"/>
       <c r="BO11" s="3"/>
       <c r="BP11" s="3"/>
-      <c r="BQ11" s="3">
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3">
         <v>49</v>
       </c>
-      <c r="BR11" s="3"/>
       <c r="BS11" s="3"/>
       <c r="BT11" s="3"/>
       <c r="BU11" s="3"/>
@@ -11923,12 +11931,12 @@
       <c r="FD11" s="3"/>
       <c r="FE11" s="3"/>
       <c r="FF11" s="3"/>
-      <c r="FG11" s="4"/>
+      <c r="FG11" s="3"/>
       <c r="FH11" s="4"/>
       <c r="FI11" s="4"/>
       <c r="FJ11" s="4"/>
       <c r="FK11" s="4"/>
-      <c r="FL11" s="6"/>
+      <c r="FL11" s="4"/>
       <c r="FM11" s="6"/>
       <c r="FN11" s="6"/>
       <c r="FO11" s="6"/>
@@ -11948,15 +11956,15 @@
       <c r="GC11" s="6"/>
       <c r="GD11" s="6"/>
       <c r="GE11" s="6"/>
-      <c r="GF11" s="6">
-        <v>2</v>
-      </c>
-      <c r="GG11" s="6"/>
+      <c r="GF11" s="6"/>
+      <c r="GG11" s="6">
+        <v>2</v>
+      </c>
       <c r="GH11" s="6"/>
-      <c r="GJ11" s="6">
+      <c r="GI11" s="6"/>
+      <c r="GK11" s="6">
         <v>49</v>
       </c>
-      <c r="GK11" s="6"/>
       <c r="GL11" s="6"/>
       <c r="GM11" s="6"/>
       <c r="GN11" s="6"/>
@@ -12011,19 +12019,19 @@
       <c r="IK11" s="6"/>
       <c r="IL11" s="6"/>
       <c r="IM11" s="6"/>
+      <c r="IN11" s="6"/>
     </row>
-    <row r="12" spans="1:247" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="DF12" s="3"/>
+    <row r="12" spans="1:248" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="DG12" s="3"/>
       <c r="DH12" s="3"/>
       <c r="DI12" s="3"/>
-      <c r="DJ12" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="DK12" s="3"/>
+      <c r="DJ12" s="3"/>
+      <c r="DK12" s="3">
+        <v>1.7</v>
+      </c>
       <c r="DL12" s="3"/>
       <c r="DM12" s="3"/>
       <c r="DN12" s="3"/>
@@ -12071,18 +12079,18 @@
       <c r="FD12" s="3"/>
       <c r="FE12" s="3"/>
       <c r="FF12" s="3"/>
-      <c r="FG12" s="4"/>
+      <c r="FG12" s="3"/>
       <c r="FH12" s="4"/>
       <c r="FI12" s="4"/>
       <c r="FJ12" s="4"/>
       <c r="FK12" s="4"/>
-      <c r="FL12" s="6"/>
+      <c r="FL12" s="4"/>
       <c r="FM12" s="6"/>
       <c r="FN12" s="6"/>
-      <c r="FO12" s="6">
+      <c r="FO12" s="6"/>
+      <c r="FP12" s="6">
         <v>110</v>
       </c>
-      <c r="FP12" s="6"/>
       <c r="FQ12" s="6"/>
       <c r="FR12" s="6"/>
       <c r="FS12" s="6"/>
@@ -12101,7 +12109,7 @@
       <c r="GF12" s="6"/>
       <c r="GG12" s="6"/>
       <c r="GH12" s="6"/>
-      <c r="GJ12" s="6"/>
+      <c r="GI12" s="6"/>
       <c r="GK12" s="6"/>
       <c r="GL12" s="6"/>
       <c r="GM12" s="6"/>
@@ -12157,19 +12165,19 @@
       <c r="IK12" s="6"/>
       <c r="IL12" s="6"/>
       <c r="IM12" s="6"/>
+      <c r="IN12" s="6"/>
     </row>
-    <row r="13" spans="1:247" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:248" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="DF13" s="3"/>
       <c r="DG13" s="3"/>
       <c r="DH13" s="3"/>
       <c r="DI13" s="3"/>
-      <c r="DN13" s="3">
+      <c r="DJ13" s="3"/>
+      <c r="DO13" s="3">
         <v>170</v>
       </c>
-      <c r="DO13" s="3"/>
       <c r="DP13" s="3"/>
       <c r="DQ13" s="3"/>
       <c r="DR13" s="3"/>
@@ -12196,10 +12204,10 @@
       <c r="EM13" s="3"/>
       <c r="EN13" s="3"/>
       <c r="EO13" s="3"/>
-      <c r="EP13" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="EQ13" s="3"/>
+      <c r="EP13" s="3"/>
+      <c r="EQ13" s="3">
+        <v>4.5</v>
+      </c>
       <c r="ER13" s="3"/>
       <c r="ES13" s="3"/>
       <c r="ET13" s="3"/>
@@ -12215,19 +12223,19 @@
       <c r="FD13" s="3"/>
       <c r="FE13" s="3"/>
       <c r="FF13" s="3"/>
-      <c r="FG13" s="4"/>
+      <c r="FG13" s="3"/>
       <c r="FH13" s="4"/>
       <c r="FI13" s="4"/>
       <c r="FJ13" s="4"/>
       <c r="FK13" s="4"/>
-      <c r="FL13" s="6"/>
+      <c r="FL13" s="4"/>
       <c r="FM13" s="6"/>
       <c r="FN13" s="6"/>
       <c r="FO13" s="6"/>
-      <c r="FP13" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="FQ13" s="6"/>
+      <c r="FP13" s="6"/>
+      <c r="FQ13" s="6">
+        <v>1.7</v>
+      </c>
       <c r="FR13" s="6"/>
       <c r="FS13" s="6"/>
       <c r="FT13" s="6"/>
@@ -12245,7 +12253,7 @@
       <c r="GF13" s="6"/>
       <c r="GG13" s="6"/>
       <c r="GH13" s="6"/>
-      <c r="GJ13" s="6"/>
+      <c r="GI13" s="6"/>
       <c r="GK13" s="6"/>
       <c r="GL13" s="6"/>
       <c r="GM13" s="6"/>
@@ -12301,19 +12309,19 @@
       <c r="IK13" s="6"/>
       <c r="IL13" s="6"/>
       <c r="IM13" s="6"/>
+      <c r="IN13" s="6"/>
     </row>
-    <row r="14" spans="1:247" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:248" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="DF14" s="3"/>
       <c r="DG14" s="3"/>
       <c r="DH14" s="3"/>
       <c r="DI14" s="3"/>
-      <c r="DN14" s="3">
-        <v>2</v>
-      </c>
-      <c r="DO14" s="3"/>
+      <c r="DJ14" s="3"/>
+      <c r="DO14" s="3">
+        <v>2</v>
+      </c>
       <c r="DP14" s="3"/>
       <c r="DQ14" s="3"/>
       <c r="DR14" s="3"/>
@@ -12357,12 +12365,12 @@
       <c r="FD14" s="3"/>
       <c r="FE14" s="3"/>
       <c r="FF14" s="3"/>
-      <c r="FG14" s="4"/>
+      <c r="FG14" s="3"/>
       <c r="FH14" s="4"/>
       <c r="FI14" s="4"/>
       <c r="FJ14" s="4"/>
       <c r="FK14" s="4"/>
-      <c r="FL14" s="6"/>
+      <c r="FL14" s="4"/>
       <c r="FM14" s="6"/>
       <c r="FN14" s="6"/>
       <c r="FO14" s="6"/>
@@ -12385,7 +12393,7 @@
       <c r="GF14" s="6"/>
       <c r="GG14" s="6"/>
       <c r="GH14" s="6"/>
-      <c r="GJ14" s="6"/>
+      <c r="GI14" s="6"/>
       <c r="GK14" s="6"/>
       <c r="GL14" s="6"/>
       <c r="GM14" s="6"/>
@@ -12441,23 +12449,23 @@
       <c r="IK14" s="6"/>
       <c r="IL14" s="6"/>
       <c r="IM14" s="6"/>
+      <c r="IN14" s="6"/>
     </row>
-    <row r="15" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+    <row r="15" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="21">
         <v>44</v>
       </c>
-      <c r="DF15" s="3"/>
       <c r="DG15" s="3"/>
       <c r="DH15" s="3"/>
       <c r="DI15" s="3"/>
-      <c r="DN15" s="3"/>
+      <c r="DJ15" s="3"/>
       <c r="DO15" s="3"/>
       <c r="DP15" s="3"/>
       <c r="DQ15" s="3"/>
-      <c r="DR15" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="DS15" s="3"/>
+      <c r="DR15" s="3"/>
+      <c r="DS15" s="3">
+        <v>4.5</v>
+      </c>
       <c r="DT15" s="3"/>
       <c r="DU15" s="3"/>
       <c r="DV15" s="3"/>
@@ -12497,12 +12505,12 @@
       <c r="FD15" s="3"/>
       <c r="FE15" s="3"/>
       <c r="FF15" s="3"/>
-      <c r="FG15" s="4"/>
+      <c r="FG15" s="3"/>
       <c r="FH15" s="4"/>
       <c r="FI15" s="4"/>
       <c r="FJ15" s="4"/>
       <c r="FK15" s="4"/>
-      <c r="FL15" s="6"/>
+      <c r="FL15" s="4"/>
       <c r="FM15" s="6"/>
       <c r="FN15" s="6"/>
       <c r="FO15" s="6"/>
@@ -12525,7 +12533,7 @@
       <c r="GF15" s="6"/>
       <c r="GG15" s="6"/>
       <c r="GH15" s="6"/>
-      <c r="GJ15" s="6"/>
+      <c r="GI15" s="6"/>
       <c r="GK15" s="6"/>
       <c r="GL15" s="6"/>
       <c r="GM15" s="6"/>
@@ -12581,23 +12589,23 @@
       <c r="IK15" s="6"/>
       <c r="IL15" s="6"/>
       <c r="IM15" s="6"/>
+      <c r="IN15" s="6"/>
     </row>
-    <row r="16" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21">
+    <row r="16" spans="1:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="21">
         <v>20</v>
       </c>
-      <c r="DF16" s="3"/>
       <c r="DG16" s="3"/>
       <c r="DH16" s="3"/>
       <c r="DI16" s="3"/>
-      <c r="DN16" s="3"/>
+      <c r="DJ16" s="3"/>
       <c r="DO16" s="3"/>
       <c r="DP16" s="3"/>
       <c r="DQ16" s="3"/>
-      <c r="DR16" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="DS16" s="3"/>
+      <c r="DR16" s="3"/>
+      <c r="DS16" s="3">
+        <v>4.5</v>
+      </c>
       <c r="DT16" s="3"/>
       <c r="DU16" s="3"/>
       <c r="DV16" s="3"/>
@@ -12621,10 +12629,10 @@
       <c r="EN16" s="3"/>
       <c r="EO16" s="3"/>
       <c r="EP16" s="3"/>
-      <c r="EQ16" s="3">
-        <v>2</v>
-      </c>
-      <c r="ER16" s="3"/>
+      <c r="EQ16" s="3"/>
+      <c r="ER16" s="3">
+        <v>2</v>
+      </c>
       <c r="ES16" s="3"/>
       <c r="ET16" s="3"/>
       <c r="EU16" s="3"/>
@@ -12639,12 +12647,12 @@
       <c r="FD16" s="3"/>
       <c r="FE16" s="3"/>
       <c r="FF16" s="3"/>
-      <c r="FG16" s="4"/>
+      <c r="FG16" s="3"/>
       <c r="FH16" s="4"/>
       <c r="FI16" s="4"/>
       <c r="FJ16" s="4"/>
       <c r="FK16" s="4"/>
-      <c r="FL16" s="6"/>
+      <c r="FL16" s="4"/>
       <c r="FM16" s="6"/>
       <c r="FN16" s="6"/>
       <c r="FO16" s="6"/>
@@ -12667,7 +12675,7 @@
       <c r="GF16" s="6"/>
       <c r="GG16" s="6"/>
       <c r="GH16" s="6"/>
-      <c r="GJ16" s="6"/>
+      <c r="GI16" s="6"/>
       <c r="GK16" s="6"/>
       <c r="GL16" s="6"/>
       <c r="GM16" s="6"/>
@@ -12723,16 +12731,16 @@
       <c r="IK16" s="6"/>
       <c r="IL16" s="6"/>
       <c r="IM16" s="6"/>
+      <c r="IN16" s="6"/>
     </row>
-    <row r="17" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="2:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="DF17" s="3"/>
       <c r="DG17" s="3"/>
       <c r="DH17" s="3"/>
       <c r="DI17" s="3"/>
-      <c r="DN17" s="3"/>
+      <c r="DJ17" s="3"/>
       <c r="DO17" s="3"/>
       <c r="DP17" s="3"/>
       <c r="DQ17" s="3"/>
@@ -12760,10 +12768,10 @@
       <c r="EM17" s="3"/>
       <c r="EN17" s="3"/>
       <c r="EO17" s="3"/>
-      <c r="EP17" s="3">
+      <c r="EP17" s="3"/>
+      <c r="EQ17" s="3">
         <v>7.8</v>
       </c>
-      <c r="EQ17" s="3"/>
       <c r="ER17" s="3"/>
       <c r="ES17" s="3"/>
       <c r="ET17" s="3"/>
@@ -12779,12 +12787,12 @@
       <c r="FD17" s="3"/>
       <c r="FE17" s="3"/>
       <c r="FF17" s="3"/>
-      <c r="FG17" s="4"/>
+      <c r="FG17" s="3"/>
       <c r="FH17" s="4"/>
       <c r="FI17" s="4"/>
       <c r="FJ17" s="4"/>
       <c r="FK17" s="4"/>
-      <c r="FL17" s="6"/>
+      <c r="FL17" s="4"/>
       <c r="FM17" s="6"/>
       <c r="FN17" s="6"/>
       <c r="FO17" s="6"/>
@@ -12807,7 +12815,7 @@
       <c r="GF17" s="6"/>
       <c r="GG17" s="6"/>
       <c r="GH17" s="6"/>
-      <c r="GJ17" s="6"/>
+      <c r="GI17" s="6"/>
       <c r="GK17" s="6"/>
       <c r="GL17" s="6"/>
       <c r="GM17" s="6"/>
@@ -12863,16 +12871,16 @@
       <c r="IK17" s="6"/>
       <c r="IL17" s="6"/>
       <c r="IM17" s="6"/>
+      <c r="IN17" s="6"/>
     </row>
-    <row r="18" spans="1:247" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="2:248" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="DF18" s="3"/>
       <c r="DG18" s="3"/>
       <c r="DH18" s="3"/>
       <c r="DI18" s="3"/>
-      <c r="DN18" s="3"/>
+      <c r="DJ18" s="3"/>
       <c r="DO18" s="3"/>
       <c r="DP18" s="3"/>
       <c r="DQ18" s="3"/>
@@ -12900,10 +12908,10 @@
       <c r="EM18" s="3"/>
       <c r="EN18" s="3"/>
       <c r="EO18" s="3"/>
-      <c r="EP18" s="3">
-        <v>2</v>
-      </c>
-      <c r="EQ18" s="3"/>
+      <c r="EP18" s="3"/>
+      <c r="EQ18" s="3">
+        <v>2</v>
+      </c>
       <c r="ER18" s="3"/>
       <c r="ES18" s="3"/>
       <c r="ET18" s="3"/>
@@ -12919,12 +12927,12 @@
       <c r="FD18" s="3"/>
       <c r="FE18" s="3"/>
       <c r="FF18" s="3"/>
-      <c r="FG18" s="4"/>
+      <c r="FG18" s="3"/>
       <c r="FH18" s="4"/>
       <c r="FI18" s="4"/>
       <c r="FJ18" s="4"/>
       <c r="FK18" s="4"/>
-      <c r="FL18" s="6"/>
+      <c r="FL18" s="4"/>
       <c r="FM18" s="6"/>
       <c r="FN18" s="6"/>
       <c r="FO18" s="6"/>
@@ -12947,7 +12955,7 @@
       <c r="GF18" s="6"/>
       <c r="GG18" s="6"/>
       <c r="GH18" s="6"/>
-      <c r="GJ18" s="6"/>
+      <c r="GI18" s="6"/>
       <c r="GK18" s="6"/>
       <c r="GL18" s="6"/>
       <c r="GM18" s="6"/>
@@ -13003,16 +13011,16 @@
       <c r="IK18" s="6"/>
       <c r="IL18" s="6"/>
       <c r="IM18" s="6"/>
+      <c r="IN18" s="6"/>
     </row>
-    <row r="19" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="B19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="DF19" s="1"/>
       <c r="DG19" s="1"/>
       <c r="DH19" s="1"/>
       <c r="DI19" s="1"/>
-      <c r="DN19" s="3"/>
+      <c r="DJ19" s="1"/>
       <c r="DO19" s="3"/>
       <c r="DP19" s="3"/>
       <c r="DQ19" s="3"/>
@@ -13057,24 +13065,24 @@
       <c r="FD19" s="3"/>
       <c r="FE19" s="3"/>
       <c r="FF19" s="3"/>
-      <c r="FG19" s="4"/>
+      <c r="FG19" s="3"/>
       <c r="FH19" s="4"/>
       <c r="FI19" s="4"/>
       <c r="FJ19" s="4"/>
       <c r="FK19" s="4"/>
-      <c r="FL19" s="5"/>
+      <c r="FL19" s="4"/>
       <c r="FM19" s="5"/>
       <c r="FN19" s="5"/>
-      <c r="FO19" s="5">
+      <c r="FO19" s="5"/>
+      <c r="FP19" s="5">
         <v>240</v>
       </c>
-      <c r="FP19" s="6">
-        <v>2</v>
-      </c>
       <c r="FQ19" s="6">
+        <v>2</v>
+      </c>
+      <c r="FR19" s="6">
         <v>13</v>
       </c>
-      <c r="FR19" s="5"/>
       <c r="FS19" s="5"/>
       <c r="FT19" s="5"/>
       <c r="FU19" s="5"/>
@@ -13091,11 +13099,11 @@
       <c r="GF19" s="5"/>
       <c r="GG19" s="5"/>
       <c r="GH19" s="5"/>
-      <c r="GJ19" s="6">
+      <c r="GI19" s="5"/>
+      <c r="GK19" s="6">
         <v>17</v>
       </c>
-      <c r="GK19" s="6"/>
-      <c r="GL19" s="5"/>
+      <c r="GL19" s="6"/>
       <c r="GM19" s="5"/>
       <c r="GN19" s="5"/>
       <c r="GO19" s="5"/>
@@ -13149,15 +13157,15 @@
       <c r="IK19" s="5"/>
       <c r="IL19" s="5"/>
       <c r="IM19" s="5"/>
+      <c r="IN19" s="5"/>
     </row>
-    <row r="20" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="A20" s="20">
+    <row r="20" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="B20" s="20">
         <v>42</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -13165,12 +13173,12 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="Q20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -13186,140 +13194,140 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-      <c r="AI20" s="3">
+      <c r="AH20" s="3"/>
+      <c r="AJ20" s="3">
         <v>130</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AK20" s="3">
         <v>33</v>
       </c>
-      <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3">
-        <v>2</v>
-      </c>
-      <c r="AS20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3">
+        <v>2</v>
+      </c>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
-      <c r="AW20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="AX20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3">
+        <v>4.5</v>
+      </c>
       <c r="AY20" s="3"/>
-      <c r="AZ20" s="3">
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3">
         <v>130</v>
-      </c>
-      <c r="BA20" s="3">
-        <v>17</v>
       </c>
       <c r="BB20" s="3">
         <v>17</v>
       </c>
-      <c r="BC20" s="3"/>
+      <c r="BC20" s="3">
+        <v>17</v>
+      </c>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
-      <c r="BF20" s="3">
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3">
         <v>79</v>
       </c>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3">
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3">
         <v>23</v>
       </c>
-      <c r="BI20" s="3">
-        <v>2</v>
-      </c>
       <c r="BJ20" s="3">
         <v>2</v>
       </c>
-      <c r="BK20" s="3"/>
+      <c r="BK20" s="3">
+        <v>2</v>
+      </c>
       <c r="BL20" s="3"/>
       <c r="BM20" s="3"/>
       <c r="BN20" s="3"/>
-      <c r="BO20" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="BP20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3">
+        <v>1.7</v>
+      </c>
       <c r="BQ20" s="3"/>
       <c r="BR20" s="3"/>
-      <c r="BS20" s="3">
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3">
         <v>33</v>
       </c>
-      <c r="BT20" s="3"/>
       <c r="BU20" s="3"/>
       <c r="BV20" s="3"/>
-      <c r="BW20" s="3">
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3">
         <v>79</v>
       </c>
-      <c r="BX20" s="3"/>
-      <c r="BY20" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="BZ20" s="3"/>
-      <c r="CA20" s="3">
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3">
         <v>1.8</v>
       </c>
-      <c r="CB20" s="3"/>
       <c r="CC20" s="3"/>
       <c r="CD20" s="3"/>
       <c r="CE20" s="3"/>
-      <c r="CF20" s="3">
-        <v>2</v>
-      </c>
-      <c r="CG20" s="3"/>
+      <c r="CF20" s="3"/>
+      <c r="CG20" s="3">
+        <v>2</v>
+      </c>
       <c r="CH20" s="3"/>
       <c r="CI20" s="3"/>
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
       <c r="CL20" s="3"/>
       <c r="CM20" s="3"/>
-      <c r="CN20" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="CO20" s="3"/>
-      <c r="CP20" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="CQ20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="CO20" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="3">
+        <v>1.7</v>
+      </c>
       <c r="CR20" s="3"/>
-      <c r="CS20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="CT20" s="2"/>
+      <c r="CS20" s="3"/>
+      <c r="CT20" s="3">
+        <v>4.5</v>
+      </c>
       <c r="CU20" s="2"/>
-      <c r="CV20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="CW20" s="3"/>
+      <c r="CV20" s="2"/>
+      <c r="CW20" s="3">
+        <v>4.5</v>
+      </c>
       <c r="CX20" s="3"/>
       <c r="CY20" s="3"/>
       <c r="CZ20" s="3"/>
-      <c r="DA20" s="3">
+      <c r="DA20" s="3"/>
+      <c r="DB20" s="3">
         <v>33</v>
       </c>
-      <c r="DB20" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="DC20" s="3"/>
+      <c r="DC20" s="3">
+        <v>1.7</v>
+      </c>
       <c r="DD20" s="3"/>
-      <c r="DE20" s="2"/>
+      <c r="DE20" s="3"/>
       <c r="DF20" s="2"/>
       <c r="DG20" s="2"/>
-      <c r="DH20" s="3"/>
+      <c r="DH20" s="2"/>
       <c r="DI20" s="3"/>
       <c r="DJ20" s="3"/>
       <c r="DK20" s="3"/>
       <c r="DL20" s="3"/>
-      <c r="DN20" s="3"/>
-      <c r="DO20" s="3">
+      <c r="DM20" s="3"/>
+      <c r="DO20" s="3"/>
+      <c r="DP20" s="3">
         <v>110</v>
       </c>
-      <c r="DP20" s="3"/>
       <c r="DQ20" s="3"/>
       <c r="DR20" s="3"/>
       <c r="DS20" s="3"/>
@@ -13327,13 +13335,13 @@
       <c r="DU20" s="3"/>
       <c r="DV20" s="3"/>
       <c r="DW20" s="3"/>
-      <c r="DX20" s="3">
+      <c r="DX20" s="3"/>
+      <c r="DY20" s="3">
         <v>70</v>
       </c>
-      <c r="DY20" s="3"/>
       <c r="DZ20" s="3"/>
       <c r="EA20" s="3"/>
-      <c r="EC20" s="3"/>
+      <c r="EB20" s="3"/>
       <c r="ED20" s="3"/>
       <c r="EE20" s="3"/>
       <c r="EF20" s="3"/>
@@ -13345,725 +13353,723 @@
       <c r="EL20" s="3"/>
       <c r="EM20" s="3"/>
       <c r="EN20" s="3"/>
-      <c r="EP20" s="3"/>
+      <c r="EO20" s="3"/>
       <c r="EQ20" s="3"/>
       <c r="ER20" s="3"/>
       <c r="ES20" s="3"/>
-      <c r="EU20" s="4">
+      <c r="ET20" s="3"/>
+      <c r="EV20" s="4">
         <v>22</v>
       </c>
-      <c r="EV20" s="4">
+      <c r="EW20" s="4">
         <v>14</v>
       </c>
-      <c r="EW20" s="4">
+      <c r="EX20" s="4">
         <v>7.8</v>
       </c>
-      <c r="EX20" s="4"/>
       <c r="EY20" s="4"/>
       <c r="EZ20" s="4"/>
-      <c r="FA20" s="6"/>
+      <c r="FA20" s="4"/>
       <c r="FB20" s="6"/>
       <c r="FC20" s="6"/>
-      <c r="FE20" s="6"/>
+      <c r="FD20" s="6"/>
       <c r="FF20" s="6"/>
       <c r="FG20" s="6"/>
       <c r="FH20" s="6"/>
       <c r="FI20" s="6"/>
       <c r="FJ20" s="6"/>
       <c r="FK20" s="6"/>
-      <c r="FL20" s="6">
+      <c r="FL20" s="6"/>
+      <c r="FM20" s="6">
         <v>1.8</v>
       </c>
-      <c r="FM20" s="6"/>
       <c r="FN20" s="6"/>
       <c r="FO20" s="6"/>
       <c r="FP20" s="6"/>
       <c r="FQ20" s="6"/>
       <c r="FR20" s="6"/>
-      <c r="FS20" s="6">
+      <c r="FS20" s="6"/>
+      <c r="FT20" s="6">
         <v>13</v>
       </c>
-      <c r="FT20" s="6">
+      <c r="FU20" s="6">
         <v>23</v>
       </c>
-      <c r="FU20" s="6">
+      <c r="FV20" s="6">
         <v>11</v>
       </c>
-      <c r="FV20" s="6"/>
-      <c r="FW20" s="6">
+      <c r="FW20" s="6"/>
+      <c r="FX20" s="6">
         <v>7.8</v>
       </c>
-      <c r="FX20" s="6">
-        <v>2</v>
-      </c>
       <c r="FY20" s="6">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="FZ20" s="6">
-        <v>2</v>
-      </c>
-      <c r="GA20" s="6"/>
+        <v>1.7</v>
+      </c>
+      <c r="GA20" s="6">
+        <v>2</v>
+      </c>
       <c r="GB20" s="6"/>
       <c r="GC20" s="6"/>
-      <c r="GD20" s="6">
-        <v>2</v>
-      </c>
-      <c r="GF20" s="6"/>
-      <c r="GG20" s="6">
+      <c r="GD20" s="6"/>
+      <c r="GE20" s="6">
+        <v>2</v>
+      </c>
+      <c r="GG20" s="6"/>
+      <c r="GH20" s="6">
         <v>13</v>
       </c>
-      <c r="GH20" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="GI20" s="6"/>
+      <c r="GI20" s="6">
+        <v>4.5</v>
+      </c>
       <c r="GJ20" s="6"/>
       <c r="GK20" s="6"/>
       <c r="GL20" s="6"/>
-      <c r="GM20" s="6">
+      <c r="GM20" s="6"/>
+      <c r="GN20" s="6">
         <v>13</v>
       </c>
-      <c r="GN20" s="6"/>
       <c r="GO20" s="6"/>
       <c r="GP20" s="6"/>
       <c r="GQ20" s="6"/>
       <c r="GR20" s="6"/>
       <c r="GS20" s="6"/>
       <c r="GT20" s="6"/>
-      <c r="IL20" s="5"/>
+      <c r="GU20" s="6"/>
       <c r="IM20" s="5"/>
+      <c r="IN20" s="5"/>
     </row>
-    <row r="21" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="A21" s="20">
+    <row r="21" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="B21" s="20">
         <v>11</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>23</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>33</v>
       </c>
-      <c r="E21" s="3">
-        <v>4.5</v>
-      </c>
       <c r="F21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G21" s="3">
         <v>240</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>49</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>540</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13</v>
       </c>
-      <c r="L21" s="3">
-        <v>4.5</v>
-      </c>
       <c r="M21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="N21" s="3">
         <v>920</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>79</v>
       </c>
-      <c r="R21" s="3">
-        <v>2</v>
-      </c>
       <c r="S21" s="3">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="T21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="U21" s="3">
         <v>11</v>
       </c>
-      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3">
         <v>11</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>920</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>23</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>240</v>
       </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3">
         <v>33</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>6.8</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>33</v>
       </c>
-      <c r="AF21" s="3">
-        <v>4.5</v>
-      </c>
       <c r="AG21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="AH21" s="3">
         <v>7.8</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AJ21" s="3">
         <v>1600</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AK21" s="3">
         <v>13</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AL21" s="3">
         <v>7.8</v>
       </c>
-      <c r="AL21" s="3">
-        <v>2</v>
-      </c>
       <c r="AM21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="3">
         <v>14</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AO21" s="3">
         <v>27</v>
       </c>
-      <c r="AO21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3">
+      <c r="AP21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3">
         <v>13</v>
       </c>
-      <c r="AS21" s="3">
+      <c r="AT21" s="3">
         <v>540</v>
-      </c>
-      <c r="AT21" s="3">
-        <v>49</v>
       </c>
       <c r="AU21" s="3">
         <v>49</v>
       </c>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3">
+      <c r="AV21" s="3">
+        <v>49</v>
+      </c>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3">
         <v>170</v>
       </c>
-      <c r="AX21" s="3">
+      <c r="AY21" s="3">
         <v>22</v>
       </c>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3">
-        <v>22</v>
-      </c>
+      <c r="AZ21" s="3"/>
       <c r="BA21" s="3">
         <v>22</v>
       </c>
       <c r="BB21" s="3">
+        <v>22</v>
+      </c>
+      <c r="BC21" s="3">
         <v>6.8</v>
       </c>
-      <c r="BC21" s="3">
+      <c r="BD21" s="3">
         <v>130</v>
       </c>
-      <c r="BD21" s="3">
+      <c r="BE21" s="3">
         <v>33</v>
       </c>
-      <c r="BE21" s="3">
+      <c r="BF21" s="3">
         <v>7.8</v>
       </c>
-      <c r="BF21" s="3">
+      <c r="BG21" s="3">
         <v>22</v>
       </c>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3">
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3">
         <v>110</v>
       </c>
-      <c r="BI21" s="3">
+      <c r="BJ21" s="3">
         <v>17</v>
       </c>
-      <c r="BJ21" s="3">
+      <c r="BK21" s="3">
         <v>70</v>
       </c>
-      <c r="BK21" s="3">
+      <c r="BL21" s="3">
         <v>1.8</v>
       </c>
-      <c r="BL21" s="3">
-        <v>2</v>
-      </c>
       <c r="BM21" s="3">
+        <v>2</v>
+      </c>
+      <c r="BN21" s="3">
         <v>170</v>
       </c>
-      <c r="BN21" s="3">
+      <c r="BO21" s="3">
         <v>11</v>
       </c>
-      <c r="BO21" s="3">
+      <c r="BP21" s="3">
         <v>7.8</v>
       </c>
-      <c r="BP21" s="3"/>
       <c r="BQ21" s="3"/>
-      <c r="BR21" s="3">
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3">
         <v>130</v>
       </c>
-      <c r="BS21" s="3">
+      <c r="BT21" s="3">
         <v>33</v>
       </c>
-      <c r="BT21" s="3">
+      <c r="BU21" s="3">
         <v>49</v>
       </c>
-      <c r="BU21" s="3">
-        <v>2</v>
-      </c>
       <c r="BV21" s="3">
         <v>2</v>
       </c>
       <c r="BW21" s="3">
+        <v>2</v>
+      </c>
+      <c r="BX21" s="3">
         <v>920</v>
       </c>
-      <c r="BX21" s="3">
-        <v>1.7</v>
-      </c>
       <c r="BY21" s="3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="BZ21" s="3">
+        <v>2</v>
+      </c>
+      <c r="CA21" s="3">
         <v>14</v>
       </c>
-      <c r="CA21" s="3">
+      <c r="CB21" s="3">
         <v>6.8</v>
       </c>
-      <c r="CB21" s="3">
+      <c r="CC21" s="3">
         <v>33</v>
       </c>
-      <c r="CC21" s="3">
+      <c r="CD21" s="3">
         <v>13</v>
       </c>
-      <c r="CD21" s="3">
+      <c r="CE21" s="3">
         <v>49</v>
       </c>
-      <c r="CE21" s="3">
-        <v>4.5</v>
-      </c>
       <c r="CF21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="CG21" s="3">
         <v>17</v>
       </c>
-      <c r="CG21" s="3"/>
-      <c r="CH21" s="3">
+      <c r="CH21" s="3"/>
+      <c r="CI21" s="3">
         <v>4</v>
       </c>
-      <c r="CI21" s="3">
+      <c r="CJ21" s="3">
         <v>33</v>
       </c>
-      <c r="CJ21" s="3">
+      <c r="CK21" s="3">
         <v>240</v>
       </c>
-      <c r="CK21" s="3">
-        <v>4.5</v>
-      </c>
       <c r="CL21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="CM21" s="3">
         <v>13</v>
       </c>
-      <c r="CM21" s="3">
+      <c r="CN21" s="3">
         <v>33</v>
       </c>
-      <c r="CN21" s="3">
-        <v>4.5</v>
-      </c>
       <c r="CO21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="CP21" s="3">
         <v>6.8</v>
       </c>
-      <c r="CP21" s="3">
+      <c r="CQ21" s="3">
         <v>17</v>
       </c>
-      <c r="CQ21" s="3">
+      <c r="CR21" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="CR21" s="3">
+      <c r="CS21" s="3">
         <v>240</v>
       </c>
-      <c r="CS21" s="3">
+      <c r="CT21" s="3">
         <v>33</v>
       </c>
-      <c r="CT21" s="3">
+      <c r="CU21" s="3">
         <v>49</v>
       </c>
-      <c r="CU21" s="3">
+      <c r="CV21" s="3">
         <v>23</v>
       </c>
-      <c r="CV21" s="3">
+      <c r="CW21" s="3">
         <v>49</v>
       </c>
-      <c r="CW21" s="3">
+      <c r="CX21" s="3">
         <v>21</v>
       </c>
-      <c r="CX21" s="3">
+      <c r="CY21" s="3">
         <v>79</v>
       </c>
-      <c r="CY21" s="3">
-        <v>4.5</v>
-      </c>
       <c r="CZ21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="DA21" s="3">
         <v>33</v>
       </c>
-      <c r="DA21" s="3"/>
-      <c r="DB21" s="3">
-        <v>2</v>
-      </c>
+      <c r="DB21" s="3"/>
       <c r="DC21" s="3">
+        <v>2</v>
+      </c>
+      <c r="DD21" s="3">
         <v>23</v>
       </c>
-      <c r="DD21" s="3">
+      <c r="DE21" s="3">
         <v>49</v>
       </c>
-      <c r="DE21" s="2"/>
-      <c r="DF21" s="2">
+      <c r="DF21" s="2"/>
+      <c r="DG21" s="2">
         <v>920</v>
       </c>
-      <c r="DG21" s="2">
-        <v>2</v>
-      </c>
-      <c r="DH21" s="3">
+      <c r="DH21" s="2">
+        <v>2</v>
+      </c>
+      <c r="DI21" s="3">
         <v>350</v>
       </c>
-      <c r="DI21" s="3">
+      <c r="DJ21" s="3">
         <v>1700</v>
       </c>
-      <c r="DJ21" s="3"/>
-      <c r="DK21" s="3">
+      <c r="DK21" s="3"/>
+      <c r="DL21" s="3">
         <v>49</v>
       </c>
-      <c r="DL21" s="3">
+      <c r="DM21" s="3">
         <v>13</v>
       </c>
-      <c r="DN21" s="3">
+      <c r="DO21" s="3">
         <v>920</v>
       </c>
-      <c r="DO21" s="3">
+      <c r="DP21" s="3">
         <v>110</v>
       </c>
-      <c r="DP21" s="3">
+      <c r="DQ21" s="3">
         <v>6.8</v>
       </c>
-      <c r="DQ21" s="3">
+      <c r="DR21" s="3">
         <v>33</v>
       </c>
-      <c r="DR21" s="3">
-        <v>1.7</v>
-      </c>
       <c r="DS21" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="DT21" s="3">
         <v>95</v>
       </c>
-      <c r="DT21" s="3">
+      <c r="DU21" s="3">
         <v>33</v>
       </c>
-      <c r="DU21" s="3">
+      <c r="DV21" s="3">
         <v>79</v>
       </c>
-      <c r="DV21" s="3">
+      <c r="DW21" s="3">
         <v>49</v>
       </c>
-      <c r="DW21" s="3">
+      <c r="DX21" s="3">
         <v>11</v>
       </c>
-      <c r="DX21" s="3">
+      <c r="DY21" s="3">
         <v>23</v>
       </c>
-      <c r="DY21" s="3">
+      <c r="DZ21" s="3">
         <v>7.8</v>
       </c>
-      <c r="DZ21" s="3">
+      <c r="EA21" s="3">
         <v>17</v>
       </c>
-      <c r="EA21" s="3">
+      <c r="EB21" s="3">
         <v>11</v>
       </c>
-      <c r="EB21" s="3">
+      <c r="EC21" s="3">
         <v>350</v>
       </c>
-      <c r="EC21" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="ED21" s="3"/>
-      <c r="EE21" s="3">
+      <c r="ED21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="EE21" s="3"/>
+      <c r="EF21" s="3">
         <v>13</v>
       </c>
-      <c r="EF21" s="3">
+      <c r="EG21" s="3">
         <v>70</v>
       </c>
-      <c r="EG21" s="3">
+      <c r="EH21" s="3">
         <v>23</v>
       </c>
-      <c r="EH21" s="3">
+      <c r="EI21" s="3">
         <v>49</v>
       </c>
-      <c r="EI21" s="3">
-        <v>4.5</v>
-      </c>
       <c r="EJ21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="EK21" s="3">
         <v>31</v>
       </c>
-      <c r="EK21" s="3">
+      <c r="EL21" s="3">
         <v>240</v>
       </c>
-      <c r="EL21" s="3">
+      <c r="EM21" s="3">
         <v>11</v>
       </c>
-      <c r="EM21" s="3">
+      <c r="EN21" s="3">
         <v>130</v>
       </c>
-      <c r="EN21" s="3">
+      <c r="EO21" s="3">
         <v>13</v>
       </c>
-      <c r="EP21" s="3"/>
       <c r="EQ21" s="3"/>
-      <c r="ER21" s="3">
+      <c r="ER21" s="3"/>
+      <c r="ES21" s="3">
         <v>33</v>
       </c>
-      <c r="ES21" s="3">
+      <c r="ET21" s="3">
         <v>13</v>
       </c>
-      <c r="EU21" s="4">
+      <c r="EV21" s="4">
         <v>79</v>
       </c>
-      <c r="EV21" s="4">
+      <c r="EW21" s="4">
         <v>17</v>
       </c>
-      <c r="EW21" s="4"/>
-      <c r="EX21" s="4">
+      <c r="EX21" s="4"/>
+      <c r="EY21" s="4">
         <v>49</v>
       </c>
-      <c r="EY21" s="4">
+      <c r="EZ21" s="4">
         <v>11</v>
       </c>
-      <c r="EZ21" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="FA21" s="6">
+      <c r="FA21" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="FB21" s="6">
         <v>11</v>
       </c>
-      <c r="FB21" s="6">
+      <c r="FC21" s="6">
         <v>6.1</v>
       </c>
-      <c r="FC21" s="6">
+      <c r="FD21" s="6">
         <v>13</v>
       </c>
-      <c r="FE21" s="6">
-        <v>2</v>
-      </c>
       <c r="FF21" s="6">
+        <v>2</v>
+      </c>
+      <c r="FG21" s="6">
         <v>79</v>
       </c>
-      <c r="FG21" s="6">
-        <v>2</v>
-      </c>
       <c r="FH21" s="6">
+        <v>2</v>
+      </c>
+      <c r="FI21" s="6">
         <v>540</v>
       </c>
-      <c r="FI21" s="6">
+      <c r="FJ21" s="6">
         <v>17</v>
       </c>
-      <c r="FJ21" s="6"/>
-      <c r="FK21" s="6">
+      <c r="FK21" s="6"/>
+      <c r="FL21" s="6">
         <v>14</v>
       </c>
-      <c r="FL21" s="6">
+      <c r="FM21" s="6">
         <v>23</v>
       </c>
-      <c r="FM21" s="6">
+      <c r="FN21" s="6">
         <v>7.8</v>
       </c>
-      <c r="FN21" s="6">
-        <v>2</v>
-      </c>
-      <c r="FO21" s="6"/>
-      <c r="FP21" s="6">
-        <v>2</v>
-      </c>
+      <c r="FO21" s="6">
+        <v>2</v>
+      </c>
+      <c r="FP21" s="6"/>
       <c r="FQ21" s="6">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="FR21" s="6">
         <v>33</v>
       </c>
       <c r="FS21" s="6">
+        <v>33</v>
+      </c>
+      <c r="FT21" s="6">
         <v>350</v>
       </c>
-      <c r="FT21" s="6"/>
-      <c r="FU21" s="6">
+      <c r="FU21" s="6"/>
+      <c r="FV21" s="6">
         <v>11</v>
       </c>
-      <c r="FV21" s="6"/>
-      <c r="FW21" s="6">
-        <v>2</v>
-      </c>
+      <c r="FW21" s="6"/>
       <c r="FX21" s="6">
+        <v>2</v>
+      </c>
+      <c r="FY21" s="6">
         <v>49</v>
       </c>
-      <c r="FY21" s="6">
-        <v>1.7</v>
-      </c>
       <c r="FZ21" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="GA21" s="6">
         <v>33</v>
       </c>
-      <c r="GA21" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="GB21" s="6"/>
-      <c r="GC21" s="6">
-        <v>2</v>
-      </c>
+      <c r="GB21" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="GC21" s="6"/>
       <c r="GD21" s="6">
+        <v>2</v>
+      </c>
+      <c r="GE21" s="6">
         <v>13</v>
       </c>
-      <c r="GF21" s="6"/>
-      <c r="GG21" s="6">
+      <c r="GG21" s="6"/>
+      <c r="GH21" s="6">
         <v>11</v>
       </c>
-      <c r="GH21" s="6">
-        <v>1.7</v>
-      </c>
       <c r="GI21" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="GJ21" s="6">
         <v>11</v>
       </c>
-      <c r="GJ21" s="6">
+      <c r="GK21" s="6">
         <v>33</v>
       </c>
-      <c r="GK21" s="6">
+      <c r="GL21" s="6">
         <v>49</v>
       </c>
-      <c r="GL21" s="6">
-        <v>1.7</v>
-      </c>
       <c r="GM21" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="GN21" s="6">
         <v>4</v>
       </c>
-      <c r="GN21" s="6"/>
       <c r="GO21" s="6"/>
       <c r="GP21" s="6"/>
       <c r="GQ21" s="6"/>
       <c r="GR21" s="6"/>
       <c r="GS21" s="6"/>
       <c r="GT21" s="6"/>
-      <c r="IL21" s="5"/>
+      <c r="GU21" s="6"/>
       <c r="IM21" s="5"/>
+      <c r="IN21" s="5"/>
     </row>
-    <row r="22" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="A22" s="20">
+    <row r="22" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="B22" s="20">
         <v>43</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>46</v>
       </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
       <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
         <v>1.8</v>
       </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
       <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
         <v>17</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49</v>
       </c>
-      <c r="L22" s="3">
-        <v>1.7</v>
-      </c>
       <c r="M22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="N22" s="3">
         <v>920</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13</v>
-      </c>
-      <c r="O22" s="3">
-        <v>17</v>
       </c>
       <c r="P22" s="3">
         <v>17</v>
       </c>
-      <c r="R22" s="3">
-        <v>1.7</v>
+      <c r="Q22" s="3">
+        <v>17</v>
       </c>
       <c r="S22" s="3">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="T22" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="U22" s="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1.7</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="3">
-        <v>1.7</v>
-      </c>
+      <c r="X22" s="3"/>
       <c r="Y22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="Z22" s="3">
         <v>140</v>
       </c>
-      <c r="Z22" s="3">
-        <v>4.5</v>
-      </c>
       <c r="AA22" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="AB22" s="3">
         <v>7.8</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1.8</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>49</v>
       </c>
-      <c r="AD22" s="3">
-        <v>2</v>
-      </c>
       <c r="AE22" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="3">
         <v>33</v>
       </c>
-      <c r="AF22" s="3">
-        <v>1.7</v>
-      </c>
       <c r="AG22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AH22" s="3">
         <v>7.8</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AJ22" s="3">
         <v>220</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AK22" s="3">
         <v>33</v>
       </c>
-      <c r="AK22" s="3">
-        <v>2</v>
-      </c>
       <c r="AL22" s="3">
         <v>2</v>
       </c>
       <c r="AM22" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="3">
         <v>4</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AO22" s="3">
         <v>17</v>
       </c>
-      <c r="AO22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3">
-        <v>1.7</v>
-      </c>
+      <c r="AP22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AT22" s="3"/>
       <c r="AU22" s="3">
         <v>1.7</v>
       </c>
@@ -14071,188 +14077,190 @@
         <v>1.7</v>
       </c>
       <c r="AW22" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="AX22" s="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>4.5</v>
+      </c>
       <c r="AY22" s="3"/>
-      <c r="AZ22" s="3">
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3">
         <v>70</v>
       </c>
-      <c r="BA22" s="3">
+      <c r="BB22" s="3">
         <v>49</v>
       </c>
-      <c r="BB22" s="3">
-        <v>1.7</v>
-      </c>
       <c r="BC22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="BD22" s="3">
         <v>13</v>
       </c>
-      <c r="BD22" s="3">
+      <c r="BE22" s="3">
         <v>11</v>
       </c>
-      <c r="BE22" s="3">
-        <v>1.7</v>
-      </c>
       <c r="BF22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="BG22" s="3">
         <v>6.8</v>
       </c>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3">
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3">
         <v>70</v>
       </c>
-      <c r="BI22" s="3">
-        <v>2</v>
-      </c>
       <c r="BJ22" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3">
+        <v>2</v>
+      </c>
+      <c r="BK22" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3">
         <v>17</v>
       </c>
-      <c r="BM22" s="3">
+      <c r="BN22" s="3">
         <v>130</v>
       </c>
-      <c r="BN22" s="3">
-        <v>1.7</v>
-      </c>
       <c r="BO22" s="3">
         <v>1.7</v>
       </c>
-      <c r="BP22" s="3"/>
+      <c r="BP22" s="3">
+        <v>1.7</v>
+      </c>
       <c r="BQ22" s="3"/>
-      <c r="BR22" s="3">
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3">
         <v>33</v>
       </c>
-      <c r="BS22" s="3">
+      <c r="BT22" s="3">
         <v>7.8</v>
       </c>
-      <c r="BT22" s="3"/>
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
       <c r="BW22" s="3"/>
       <c r="BX22" s="3"/>
-      <c r="BY22" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="BZ22" s="3"/>
-      <c r="CA22" s="3">
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3">
         <v>33</v>
       </c>
-      <c r="CB22" s="3">
-        <v>1.7</v>
-      </c>
       <c r="CC22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="CD22" s="3">
         <v>7.8</v>
       </c>
-      <c r="CD22" s="3">
+      <c r="CE22" s="3">
         <v>23</v>
       </c>
-      <c r="CE22" s="3">
-        <v>1.7</v>
-      </c>
       <c r="CF22" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="CG22" s="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="CG22" s="3">
+        <v>4.5</v>
+      </c>
       <c r="CH22" s="3"/>
-      <c r="CI22" s="3">
+      <c r="CI22" s="3"/>
+      <c r="CJ22" s="3">
         <v>13</v>
       </c>
-      <c r="CJ22" s="3">
+      <c r="CK22" s="3">
         <v>79</v>
       </c>
-      <c r="CK22" s="3">
-        <v>1.7</v>
-      </c>
       <c r="CL22" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="CM22" s="3"/>
-      <c r="CN22" s="3">
-        <v>2</v>
-      </c>
-      <c r="CO22" s="3"/>
-      <c r="CP22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="CM22" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="CN22" s="3"/>
+      <c r="CO22" s="3">
+        <v>2</v>
+      </c>
+      <c r="CP22" s="3"/>
+      <c r="CQ22" s="3">
         <v>23</v>
       </c>
-      <c r="CQ22" s="3"/>
-      <c r="CR22" s="3">
+      <c r="CR22" s="3"/>
+      <c r="CS22" s="3">
         <v>17</v>
       </c>
-      <c r="CS22" s="3">
+      <c r="CT22" s="3">
         <v>79</v>
       </c>
-      <c r="CT22" s="3">
+      <c r="CU22" s="3">
         <v>33</v>
       </c>
-      <c r="CU22" s="3">
-        <v>2</v>
-      </c>
       <c r="CV22" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="CW22" s="3"/>
-      <c r="CX22" s="3">
+        <v>2</v>
+      </c>
+      <c r="CW22" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="CX22" s="3"/>
+      <c r="CY22" s="3">
         <v>33</v>
       </c>
-      <c r="CY22" s="3">
-        <v>4.5</v>
-      </c>
       <c r="CZ22" s="3">
         <v>4.5</v>
       </c>
-      <c r="DA22" s="3"/>
+      <c r="DA22" s="3">
+        <v>4.5</v>
+      </c>
       <c r="DB22" s="3"/>
       <c r="DC22" s="3"/>
       <c r="DD22" s="3"/>
-      <c r="DE22" s="2"/>
+      <c r="DE22" s="3"/>
       <c r="DF22" s="2"/>
       <c r="DG22" s="2"/>
-      <c r="DH22" s="3">
+      <c r="DH22" s="2"/>
+      <c r="DI22" s="3">
         <v>70</v>
       </c>
-      <c r="DI22" s="3"/>
-      <c r="DJ22" s="3">
+      <c r="DJ22" s="3"/>
+      <c r="DK22" s="3">
         <v>33</v>
       </c>
-      <c r="DK22" s="3"/>
       <c r="DL22" s="3"/>
-      <c r="DN22" s="3"/>
+      <c r="DM22" s="3"/>
       <c r="DO22" s="3"/>
       <c r="DP22" s="3"/>
-      <c r="DQ22" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="DR22" s="3"/>
-      <c r="DS22" s="3">
+      <c r="DQ22" s="3"/>
+      <c r="DR22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="DS22" s="3"/>
+      <c r="DT22" s="3">
         <v>31</v>
       </c>
-      <c r="DT22" s="3"/>
-      <c r="DU22" s="3">
+      <c r="DU22" s="3"/>
+      <c r="DV22" s="3">
         <v>110</v>
       </c>
-      <c r="DV22" s="3">
+      <c r="DW22" s="3">
         <v>23</v>
       </c>
-      <c r="DW22" s="3">
+      <c r="DX22" s="3">
         <v>4</v>
       </c>
-      <c r="DX22" s="3">
+      <c r="DY22" s="3">
         <v>7.8</v>
       </c>
-      <c r="DY22" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="DZ22" s="3"/>
+      <c r="DZ22" s="3">
+        <v>1.7</v>
+      </c>
       <c r="EA22" s="3"/>
-      <c r="EC22" s="3">
-        <v>2</v>
-      </c>
+      <c r="EB22" s="3"/>
       <c r="ED22" s="3">
+        <v>2</v>
+      </c>
+      <c r="EE22" s="3">
         <v>23</v>
       </c>
-      <c r="EE22" s="3"/>
       <c r="EF22" s="3"/>
       <c r="EG22" s="3"/>
       <c r="EH22" s="3"/>
@@ -14262,34 +14270,34 @@
       <c r="EL22" s="3"/>
       <c r="EM22" s="3"/>
       <c r="EN22" s="3"/>
-      <c r="EP22" s="3"/>
+      <c r="EO22" s="3"/>
       <c r="EQ22" s="3"/>
       <c r="ER22" s="3"/>
       <c r="ES22" s="3"/>
-      <c r="EU22" s="4"/>
+      <c r="ET22" s="3"/>
       <c r="EV22" s="4"/>
-      <c r="EW22" s="4">
+      <c r="EW22" s="4"/>
+      <c r="EX22" s="4">
         <v>4</v>
       </c>
-      <c r="EX22" s="4"/>
       <c r="EY22" s="4"/>
       <c r="EZ22" s="4"/>
-      <c r="FA22" s="6">
+      <c r="FA22" s="4"/>
+      <c r="FB22" s="6">
         <v>33</v>
       </c>
-      <c r="FB22" s="6"/>
-      <c r="FC22" s="6">
-        <v>2</v>
-      </c>
-      <c r="FE22" s="6"/>
+      <c r="FC22" s="6"/>
+      <c r="FD22" s="6">
+        <v>2</v>
+      </c>
       <c r="FF22" s="6"/>
       <c r="FG22" s="6"/>
       <c r="FH22" s="6"/>
       <c r="FI22" s="6"/>
-      <c r="FJ22" s="6">
+      <c r="FJ22" s="6"/>
+      <c r="FK22" s="6">
         <v>34</v>
       </c>
-      <c r="FK22" s="6"/>
       <c r="FL22" s="6"/>
       <c r="FM22" s="6"/>
       <c r="FN22" s="6"/>
@@ -14307,14 +14315,14 @@
       <c r="FZ22" s="6"/>
       <c r="GA22" s="6"/>
       <c r="GB22" s="6"/>
-      <c r="GC22" s="6">
-        <v>2</v>
-      </c>
-      <c r="GD22" s="6"/>
-      <c r="GF22" s="6">
+      <c r="GC22" s="6"/>
+      <c r="GD22" s="6">
+        <v>2</v>
+      </c>
+      <c r="GE22" s="6"/>
+      <c r="GG22" s="6">
         <v>13</v>
       </c>
-      <c r="GG22" s="6"/>
       <c r="GH22" s="6"/>
       <c r="GI22" s="6"/>
       <c r="GJ22" s="6"/>
@@ -14328,13 +14336,13 @@
       <c r="GR22" s="6"/>
       <c r="GS22" s="6"/>
       <c r="GT22" s="6"/>
+      <c r="GU22" s="6"/>
     </row>
-    <row r="23" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="DF23" s="1"/>
+    <row r="23" spans="2:248" x14ac:dyDescent="0.15">
       <c r="DG23" s="1"/>
       <c r="DH23" s="1"/>
       <c r="DI23" s="1"/>
-      <c r="DN23" s="3"/>
+      <c r="DJ23" s="1"/>
       <c r="DO23" s="3"/>
       <c r="DP23" s="3"/>
       <c r="DQ23" s="3"/>
@@ -14384,14 +14392,14 @@
       <c r="FI23" s="3"/>
       <c r="FJ23" s="3"/>
       <c r="FK23" s="3"/>
+      <c r="FL23" s="3"/>
     </row>
-    <row r="24" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="BQ24" s="3"/>
-      <c r="DF24" s="1"/>
+    <row r="24" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="BR24" s="3"/>
       <c r="DG24" s="1"/>
       <c r="DH24" s="1"/>
       <c r="DI24" s="1"/>
-      <c r="DN24" s="3"/>
+      <c r="DJ24" s="1"/>
       <c r="DO24" s="3"/>
       <c r="DP24" s="3"/>
       <c r="DQ24" s="3"/>
@@ -14441,20 +14449,20 @@
       <c r="FI24" s="3"/>
       <c r="FJ24" s="3"/>
       <c r="FK24" s="3"/>
-      <c r="FO24" s="6"/>
-      <c r="GC24" s="9"/>
+      <c r="FL24" s="3"/>
+      <c r="FP24" s="6"/>
       <c r="GD24" s="9"/>
-      <c r="GF24" s="9"/>
+      <c r="GE24" s="9"/>
       <c r="GG24" s="9"/>
       <c r="GH24" s="9"/>
       <c r="GI24" s="9"/>
+      <c r="GJ24" s="9"/>
     </row>
-    <row r="25" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="DF25" s="1"/>
+    <row r="25" spans="2:248" x14ac:dyDescent="0.15">
       <c r="DG25" s="1"/>
       <c r="DH25" s="1"/>
       <c r="DI25" s="1"/>
-      <c r="DN25" s="3"/>
+      <c r="DJ25" s="1"/>
       <c r="DO25" s="3"/>
       <c r="DP25" s="3"/>
       <c r="DQ25" s="3"/>
@@ -14504,22 +14512,22 @@
       <c r="FI25" s="3"/>
       <c r="FJ25" s="3"/>
       <c r="FK25" s="3"/>
-      <c r="FU25" s="9"/>
+      <c r="FL25" s="3"/>
       <c r="FV25" s="9"/>
       <c r="FW25" s="9"/>
       <c r="FX25" s="9"/>
       <c r="FY25" s="9"/>
       <c r="FZ25" s="9"/>
-      <c r="GC25" s="6"/>
+      <c r="GA25" s="9"/>
       <c r="GD25" s="6"/>
-      <c r="GF25" s="6"/>
+      <c r="GE25" s="6"/>
       <c r="GG25" s="6"/>
       <c r="GH25" s="6"/>
       <c r="GI25" s="6"/>
+      <c r="GJ25" s="6"/>
     </row>
-    <row r="26" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="DF26" s="1"/>
-      <c r="DN26" s="3"/>
+    <row r="26" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="DG26" s="1"/>
       <c r="DO26" s="3"/>
       <c r="DP26" s="3"/>
       <c r="DQ26" s="3"/>
@@ -14569,42 +14577,43 @@
       <c r="FI26" s="3"/>
       <c r="FJ26" s="3"/>
       <c r="FK26" s="3"/>
-      <c r="FU26" s="6"/>
+      <c r="FL26" s="3"/>
       <c r="FV26" s="6"/>
       <c r="FW26" s="6"/>
       <c r="FX26" s="6"/>
       <c r="FY26" s="6"/>
       <c r="FZ26" s="6"/>
-      <c r="GC26" s="6"/>
+      <c r="GA26" s="6"/>
       <c r="GD26" s="6"/>
-      <c r="GF26" s="6"/>
+      <c r="GE26" s="6"/>
       <c r="GG26" s="6"/>
       <c r="GH26" s="6"/>
       <c r="GI26" s="6"/>
+      <c r="GJ26" s="6"/>
     </row>
-    <row r="27" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="DF27" s="1"/>
-      <c r="FU27" s="6"/>
+    <row r="27" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="DG27" s="1"/>
       <c r="FV27" s="6"/>
       <c r="FW27" s="6"/>
       <c r="FX27" s="6"/>
       <c r="FY27" s="6"/>
       <c r="FZ27" s="6"/>
-      <c r="GC27" s="6"/>
+      <c r="GA27" s="6"/>
       <c r="GD27" s="6"/>
-      <c r="GF27" s="6"/>
+      <c r="GE27" s="6"/>
       <c r="GG27" s="6"/>
       <c r="GH27" s="6"/>
       <c r="GI27" s="6"/>
+      <c r="GJ27" s="6"/>
     </row>
-    <row r="28" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="DF28" s="1"/>
+    <row r="28" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="DG28" s="1"/>
     </row>
-    <row r="29" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="DF29" s="1"/>
+    <row r="29" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="DG29" s="1"/>
     </row>
-    <row r="30" spans="1:247" x14ac:dyDescent="0.15">
-      <c r="DF30" s="1"/>
+    <row r="30" spans="2:248" x14ac:dyDescent="0.15">
+      <c r="DG30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
